--- a/sequences/31_localizer.xlsx
+++ b/sequences/31_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
-    <t>car</t>
-  </si>
-  <si>
     <t>dog</t>
   </si>
   <si>
-    <t>face</t>
+    <t>face/face000.png</t>
+  </si>
+  <si>
+    <t>car/car008.png</t>
+  </si>
+  <si>
+    <t>flower/flower012.png</t>
+  </si>
+  <si>
+    <t>face/face008.png</t>
+  </si>
+  <si>
+    <t>face/face013.png</t>
+  </si>
+  <si>
+    <t>flower/flower002.png</t>
+  </si>
+  <si>
+    <t>car/car004.png</t>
+  </si>
+  <si>
+    <t>dog/dog012.png</t>
+  </si>
+  <si>
+    <t>dog/dog008.png</t>
+  </si>
+  <si>
+    <t>dog/dog013.png</t>
+  </si>
+  <si>
+    <t>face/face011.png</t>
+  </si>
+  <si>
+    <t>face/face009.png</t>
+  </si>
+  <si>
+    <t>face/face004.png</t>
+  </si>
+  <si>
+    <t>car/car011.png</t>
+  </si>
+  <si>
+    <t>face/face012.png</t>
+  </si>
+  <si>
+    <t>face/face010.png</t>
+  </si>
+  <si>
+    <t>dog/dog009.png</t>
+  </si>
+  <si>
+    <t>car/car001.png</t>
+  </si>
+  <si>
+    <t>flower/flower001.png</t>
+  </si>
+  <si>
+    <t>car/car002.png</t>
+  </si>
+  <si>
+    <t>car/car006.png</t>
+  </si>
+  <si>
+    <t>face/face007.png</t>
+  </si>
+  <si>
+    <t>car/car007.png</t>
+  </si>
+  <si>
+    <t>dog/dog014.png</t>
+  </si>
+  <si>
+    <t>car/car014.png</t>
+  </si>
+  <si>
+    <t>car/car000.png</t>
+  </si>
+  <si>
+    <t>dog/dog003.png</t>
+  </si>
+  <si>
+    <t>flower/flower007.png</t>
+  </si>
+  <si>
+    <t>dog/dog005.png</t>
+  </si>
+  <si>
+    <t>car/car015.png</t>
+  </si>
+  <si>
+    <t>dog/dog015.png</t>
+  </si>
+  <si>
+    <t>face/face005.png</t>
+  </si>
+  <si>
+    <t>dog/dog000.png</t>
+  </si>
+  <si>
+    <t>dog/dog006.png</t>
+  </si>
+  <si>
+    <t>car/car005.png</t>
+  </si>
+  <si>
+    <t>face/face015.png</t>
+  </si>
+  <si>
+    <t>flower/flower011.png</t>
+  </si>
+  <si>
+    <t>face/face014.png</t>
+  </si>
+  <si>
+    <t>car/car013.png</t>
+  </si>
+  <si>
+    <t>car/car010.png</t>
+  </si>
+  <si>
+    <t>car/car009.png</t>
+  </si>
+  <si>
+    <t>flower/flower008.png</t>
+  </si>
+  <si>
+    <t>flower/flower003.png</t>
+  </si>
+  <si>
+    <t>car/car012.png</t>
+  </si>
+  <si>
+    <t>face/face003.png</t>
+  </si>
+  <si>
+    <t>dog/dog010.png</t>
+  </si>
+  <si>
+    <t>flower/flower004.png</t>
+  </si>
+  <si>
+    <t>face/face001.png</t>
+  </si>
+  <si>
+    <t>flower/flower000.png</t>
   </si>
   <si>
     <t>flower/flower014.png</t>
   </si>
   <si>
-    <t>car/car015.png</t>
+    <t>dog/dog007.png</t>
+  </si>
+  <si>
+    <t>flower/flower009.png</t>
+  </si>
+  <si>
+    <t>flower/flower015.png</t>
+  </si>
+  <si>
+    <t>flower/flower006.png</t>
+  </si>
+  <si>
+    <t>face/face006.png</t>
+  </si>
+  <si>
+    <t>dog/dog011.png</t>
+  </si>
+  <si>
+    <t>face/face002.png</t>
   </si>
   <si>
     <t>flower/flower010.png</t>
   </si>
   <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
+    <t>dog/dog004.png</t>
+  </si>
+  <si>
+    <t>dog/dog002.png</t>
+  </si>
+  <si>
+    <t>flower/flower005.png</t>
   </si>
   <si>
     <t>car/car003.png</t>
   </si>
   <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
+    <t>flower/flower013.png</t>
   </si>
   <si>
     <t>dog/dog001.png</t>
   </si>
   <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
+    <t>dog/dog022.png</t>
+  </si>
+  <si>
+    <t>car/car025.png</t>
+  </si>
+  <si>
+    <t>car/car019.png</t>
+  </si>
+  <si>
+    <t>dog/dog027.png</t>
+  </si>
+  <si>
+    <t>dog/dog026.png</t>
+  </si>
+  <si>
+    <t>dog/dog028.png</t>
+  </si>
+  <si>
+    <t>face/face017.png</t>
+  </si>
+  <si>
+    <t>face/face027.png</t>
+  </si>
+  <si>
+    <t>flower/flower022.png</t>
+  </si>
+  <si>
+    <t>flower/flower028.png</t>
+  </si>
+  <si>
+    <t>flower/flower021.png</t>
+  </si>
+  <si>
+    <t>car/car016.png</t>
+  </si>
+  <si>
+    <t>face/face031.png</t>
+  </si>
+  <si>
+    <t>dog/dog024.png</t>
+  </si>
+  <si>
+    <t>dog/dog025.png</t>
+  </si>
+  <si>
+    <t>car/car020.png</t>
+  </si>
+  <si>
+    <t>face/face018.png</t>
+  </si>
+  <si>
+    <t>car/car028.png</t>
+  </si>
+  <si>
+    <t>car/car023.png</t>
+  </si>
+  <si>
+    <t>car/car031.png</t>
+  </si>
+  <si>
+    <t>flower/flower030.png</t>
+  </si>
+  <si>
+    <t>car/car022.png</t>
+  </si>
+  <si>
+    <t>car/car024.png</t>
+  </si>
+  <si>
+    <t>face/face016.png</t>
+  </si>
+  <si>
+    <t>flower/flower023.png</t>
+  </si>
+  <si>
+    <t>face/face023.png</t>
+  </si>
+  <si>
+    <t>dog/dog029.png</t>
+  </si>
+  <si>
+    <t>face/face024.png</t>
+  </si>
+  <si>
+    <t>flower/flower026.png</t>
+  </si>
+  <si>
+    <t>dog/dog021.png</t>
+  </si>
+  <si>
+    <t>flower/flower024.png</t>
+  </si>
+  <si>
+    <t>flower/flower029.png</t>
   </si>
   <si>
     <t>dog/dog018.png</t>
   </si>
   <si>
-    <t>car/car020.png</t>
+    <t>face/face028.png</t>
+  </si>
+  <si>
+    <t>car/car029.png</t>
+  </si>
+  <si>
+    <t>dog/dog030.png</t>
+  </si>
+  <si>
+    <t>face/face030.png</t>
+  </si>
+  <si>
+    <t>dog/dog017.png</t>
+  </si>
+  <si>
+    <t>car/car027.png</t>
+  </si>
+  <si>
+    <t>flower/flower025.png</t>
   </si>
   <si>
     <t>face/face020.png</t>
   </si>
   <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
+    <t>face/face019.png</t>
+  </si>
+  <si>
+    <t>car/car030.png</t>
+  </si>
+  <si>
+    <t>flower/flower027.png</t>
+  </si>
+  <si>
+    <t>dog/dog020.png</t>
+  </si>
+  <si>
+    <t>dog/dog019.png</t>
+  </si>
+  <si>
+    <t>flower/flower019.png</t>
+  </si>
+  <si>
+    <t>car/car026.png</t>
+  </si>
+  <si>
+    <t>dog/dog023.png</t>
+  </si>
+  <si>
+    <t>flower/flower016.png</t>
+  </si>
+  <si>
+    <t>face/face022.png</t>
+  </si>
+  <si>
+    <t>flower/flower031.png</t>
+  </si>
+  <si>
+    <t>car/car018.png</t>
+  </si>
+  <si>
+    <t>flower/flower020.png</t>
+  </si>
+  <si>
+    <t>flower/flower017.png</t>
+  </si>
+  <si>
+    <t>face/face025.png</t>
+  </si>
+  <si>
+    <t>car/car017.png</t>
+  </si>
+  <si>
+    <t>face/face026.png</t>
+  </si>
+  <si>
+    <t>face/face029.png</t>
+  </si>
+  <si>
+    <t>face/face021.png</t>
   </si>
   <si>
     <t>dog/dog016.png</t>
   </si>
   <si>
+    <t>flower/flower018.png</t>
+  </si>
+  <si>
+    <t>dog/dog031.png</t>
+  </si>
+  <si>
     <t>car/car021.png</t>
   </si>
   <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
+    <t>face/face044.png</t>
+  </si>
+  <si>
+    <t>dog/dog042.png</t>
+  </si>
+  <si>
+    <t>flower/flower039.png</t>
+  </si>
+  <si>
+    <t>dog/dog046.png</t>
+  </si>
+  <si>
+    <t>face/face036.png</t>
+  </si>
+  <si>
+    <t>flower/flower040.png</t>
+  </si>
+  <si>
+    <t>car/car034.png</t>
+  </si>
+  <si>
+    <t>face/face038.png</t>
+  </si>
+  <si>
+    <t>car/car033.png</t>
+  </si>
+  <si>
+    <t>dog/dog032.png</t>
+  </si>
+  <si>
+    <t>face/face032.png</t>
+  </si>
+  <si>
+    <t>face/face033.png</t>
+  </si>
+  <si>
+    <t>face/face039.png</t>
+  </si>
+  <si>
+    <t>dog/dog038.png</t>
+  </si>
+  <si>
+    <t>face/face046.png</t>
+  </si>
+  <si>
+    <t>car/car039.png</t>
+  </si>
+  <si>
+    <t>face/face047.png</t>
+  </si>
+  <si>
+    <t>dog/dog035.png</t>
+  </si>
+  <si>
+    <t>dog/dog033.png</t>
+  </si>
+  <si>
+    <t>car/car043.png</t>
+  </si>
+  <si>
+    <t>flower/flower033.png</t>
+  </si>
+  <si>
+    <t>car/car036.png</t>
+  </si>
+  <si>
+    <t>flower/flower037.png</t>
+  </si>
+  <si>
+    <t>dog/dog036.png</t>
+  </si>
+  <si>
+    <t>flower/flower032.png</t>
+  </si>
+  <si>
+    <t>face/face042.png</t>
+  </si>
+  <si>
+    <t>car/car046.png</t>
+  </si>
+  <si>
+    <t>flower/flower036.png</t>
+  </si>
+  <si>
+    <t>flower/flower038.png</t>
+  </si>
+  <si>
+    <t>flower/flower042.png</t>
+  </si>
+  <si>
+    <t>dog/dog040.png</t>
+  </si>
+  <si>
+    <t>dog/dog044.png</t>
+  </si>
+  <si>
+    <t>face/face035.png</t>
+  </si>
+  <si>
+    <t>dog/dog034.png</t>
+  </si>
+  <si>
+    <t>car/car047.png</t>
+  </si>
+  <si>
+    <t>car/car041.png</t>
+  </si>
+  <si>
+    <t>face/face037.png</t>
+  </si>
+  <si>
+    <t>flower/flower043.png</t>
+  </si>
+  <si>
+    <t>flower/flower047.png</t>
+  </si>
+  <si>
+    <t>face/face040.png</t>
+  </si>
+  <si>
+    <t>flower/flower045.png</t>
+  </si>
+  <si>
+    <t>face/face043.png</t>
+  </si>
+  <si>
+    <t>face/face034.png</t>
+  </si>
+  <si>
+    <t>car/car037.png</t>
+  </si>
+  <si>
+    <t>car/car032.png</t>
+  </si>
+  <si>
+    <t>car/car038.png</t>
+  </si>
+  <si>
+    <t>dog/dog041.png</t>
+  </si>
+  <si>
+    <t>flower/flower046.png</t>
+  </si>
+  <si>
+    <t>car/car042.png</t>
+  </si>
+  <si>
+    <t>dog/dog039.png</t>
+  </si>
+  <si>
+    <t>car/car044.png</t>
+  </si>
+  <si>
+    <t>face/face045.png</t>
+  </si>
+  <si>
+    <t>face/face041.png</t>
+  </si>
+  <si>
+    <t>flower/flower044.png</t>
+  </si>
+  <si>
+    <t>dog/dog047.png</t>
+  </si>
+  <si>
+    <t>car/car045.png</t>
   </si>
   <si>
     <t>dog/dog037.png</t>
   </si>
   <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
+    <t>dog/dog045.png</t>
+  </si>
+  <si>
+    <t>dog/dog043.png</t>
+  </si>
+  <si>
+    <t>flower/flower035.png</t>
   </si>
   <si>
     <t>flower/flower034.png</t>
   </si>
   <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
     <t>car/car040.png</t>
   </si>
   <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
+    <t>car/car035.png</t>
   </si>
   <si>
     <t>flower/flower041.png</t>
   </si>
   <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
+    <t>car/car048.png</t>
+  </si>
+  <si>
+    <t>face/face058.png</t>
+  </si>
+  <si>
+    <t>car/car060.png</t>
+  </si>
+  <si>
+    <t>face/face055.png</t>
+  </si>
+  <si>
+    <t>dog/dog054.png</t>
+  </si>
+  <si>
+    <t>dog/dog048.png</t>
+  </si>
+  <si>
+    <t>dog/dog052.png</t>
+  </si>
+  <si>
+    <t>car/car063.png</t>
+  </si>
+  <si>
+    <t>car/car055.png</t>
+  </si>
+  <si>
+    <t>flower/flower054.png</t>
+  </si>
+  <si>
+    <t>flower/flower060.png</t>
+  </si>
+  <si>
+    <t>car/car061.png</t>
+  </si>
+  <si>
+    <t>face/face062.png</t>
+  </si>
+  <si>
+    <t>flower/flower057.png</t>
+  </si>
+  <si>
+    <t>dog/dog063.png</t>
+  </si>
+  <si>
+    <t>dog/dog060.png</t>
+  </si>
+  <si>
+    <t>flower/flower050.png</t>
+  </si>
+  <si>
+    <t>face/face050.png</t>
+  </si>
+  <si>
+    <t>face/face053.png</t>
+  </si>
+  <si>
+    <t>flower/flower059.png</t>
+  </si>
+  <si>
+    <t>face/face049.png</t>
+  </si>
+  <si>
+    <t>car/car049.png</t>
+  </si>
+  <si>
+    <t>flower/flower049.png</t>
+  </si>
+  <si>
+    <t>car/car053.png</t>
+  </si>
+  <si>
+    <t>flower/flower061.png</t>
   </si>
   <si>
     <t>dog/dog059.png</t>
   </si>
   <si>
+    <t>face/face060.png</t>
+  </si>
+  <si>
+    <t>flower/flower052.png</t>
+  </si>
+  <si>
+    <t>car/car057.png</t>
+  </si>
+  <si>
+    <t>car/car059.png</t>
+  </si>
+  <si>
+    <t>dog/dog061.png</t>
+  </si>
+  <si>
+    <t>face/face061.png</t>
+  </si>
+  <si>
+    <t>face/face054.png</t>
+  </si>
+  <si>
+    <t>dog/dog055.png</t>
+  </si>
+  <si>
+    <t>car/car054.png</t>
+  </si>
+  <si>
+    <t>dog/dog051.png</t>
+  </si>
+  <si>
+    <t>car/car051.png</t>
+  </si>
+  <si>
+    <t>flower/flower063.png</t>
+  </si>
+  <si>
+    <t>face/face063.png</t>
+  </si>
+  <si>
+    <t>flower/flower051.png</t>
+  </si>
+  <si>
+    <t>flower/flower062.png</t>
+  </si>
+  <si>
+    <t>dog/dog057.png</t>
+  </si>
+  <si>
+    <t>car/car056.png</t>
+  </si>
+  <si>
+    <t>face/face056.png</t>
+  </si>
+  <si>
+    <t>face/face059.png</t>
+  </si>
+  <si>
+    <t>face/face048.png</t>
+  </si>
+  <si>
+    <t>car/car050.png</t>
+  </si>
+  <si>
+    <t>dog/dog056.png</t>
+  </si>
+  <si>
+    <t>flower/flower055.png</t>
+  </si>
+  <si>
+    <t>dog/dog053.png</t>
+  </si>
+  <si>
+    <t>flower/flower056.png</t>
+  </si>
+  <si>
+    <t>car/car062.png</t>
+  </si>
+  <si>
+    <t>dog/dog050.png</t>
+  </si>
+  <si>
+    <t>dog/dog058.png</t>
+  </si>
+  <si>
+    <t>face/face057.png</t>
+  </si>
+  <si>
+    <t>dog/dog049.png</t>
+  </si>
+  <si>
+    <t>flower/flower058.png</t>
+  </si>
+  <si>
+    <t>flower/flower048.png</t>
+  </si>
+  <si>
     <t>flower/flower053.png</t>
   </si>
   <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
     <t>face/face051.png</t>
   </si>
   <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
     <t>dog/dog062.png</t>
   </si>
   <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
     <t>face/face052.png</t>
   </si>
   <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
+    <t>car/car052.png</t>
   </si>
   <si>
     <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.767330492464301</v>
+        <v>1.433639287281264</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1.552005218212516</v>
+        <v>1.58994809276719</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1.610201244459773</v>
+        <v>1.56688439673029</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1263,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1.399626709329635</v>
+        <v>1.44712613391809</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1.403956213770292</v>
+        <v>1.394511748779269</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.319978423054611</v>
+        <v>1.657961820717042</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.486514285898133</v>
+        <v>1.382863476322317</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.825597621551703</v>
+        <v>1.840967721907435</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.501926714593846</v>
+        <v>1.436180950226784</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1.438844541903937</v>
+        <v>1.448181898440642</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.391265854928484</v>
+        <v>1.440153663853754</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.647889079671419</v>
+        <v>1.428288572279621</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.763215031554837</v>
+        <v>1.788952700063576</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1.419256698264505</v>
+        <v>1.729021961430782</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.632341770994636</v>
+        <v>1.460194126212568</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.515265714387086</v>
+        <v>1.281469116777269</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.569258643557166</v>
+        <v>1.557590101755598</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>1.758563607503139</v>
+        <v>1.318936014170538</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.489477039278173</v>
+        <v>1.345899472755099</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.593186844878886</v>
+        <v>1.514578128409182</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.647669054441822</v>
+        <v>1.671417810782097</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.705865363808436</v>
+        <v>1.552726474849968</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.857033462911168</v>
+        <v>1.66857304647848</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.487695128729975</v>
+        <v>1.555438920838289</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1.339034377429965</v>
+        <v>1.560509158569193</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.717915902255596</v>
+        <v>1.491097800823995</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.545239790880354</v>
+        <v>1.539128811473634</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.673445279241827</v>
+        <v>1.49196091417351</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.538976163786683</v>
+        <v>1.338173760044413</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.49703918845097</v>
+        <v>1.563986826739168</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.414556123159136</v>
+        <v>1.540343365022362</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.56580296813766</v>
+        <v>1.586380443536323</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.698713845113494</v>
+        <v>1.651210947827478</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.523053575681002</v>
+        <v>1.553730706341653</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.33079476669146</v>
+        <v>1.564281403093617</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.685984032720056</v>
+        <v>1.50545186965431</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>1.799615186018338</v>
+        <v>1.524285225325252</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>1.445159486237069</v>
+        <v>1.610562973893537</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1.585902103474409</v>
+        <v>1.574933391981499</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.578684616888153</v>
+        <v>1.323865740233713</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.737690935945936</v>
+        <v>1.587752423539191</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.46177365443467</v>
+        <v>1.303208113161758</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.733021088352546</v>
+        <v>1.632535721098869</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.755524566111603</v>
+        <v>1.616809191301864</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.507725904727028</v>
+        <v>1.347267559340336</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.239182859232379</v>
+        <v>1.604076622086668</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.437031241548641</v>
+        <v>1.371912405578942</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.658226100215541</v>
+        <v>1.420468090923037</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.539282180268557</v>
+        <v>1.521660882241702</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.429818845978583</v>
+        <v>1.384712367574745</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.597157581096747</v>
+        <v>1.602103795863368</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.566912266050469</v>
+        <v>1.519477354974184</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.406680024523483</v>
+        <v>1.614617898241725</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.575131190832394</v>
+        <v>1.40350615123846</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.063548471738249</v>
+        <v>1.553281065196424</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.385639724277033</v>
+        <v>1.562454298237406</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.404682588797651</v>
+        <v>1.622967628026474</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.546185833696466</v>
+        <v>1.593866073715238</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.553692769963033</v>
+        <v>1.419214332010171</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>1.524556172308873</v>
+        <v>1.513158106209933</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62">
-        <v>1.699339842662961</v>
+        <v>1.808994309079573</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2423,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>1.618807020220616</v>
+        <v>1.483303470177389</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.539612691107056</v>
+        <v>1.518882953723098</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2463,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>1.614770389270567</v>
+        <v>1.570617298865602</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.290866735785353</v>
+        <v>1.555857056676949</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.443923327601007</v>
+        <v>1.521879988089677</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.641432475234944</v>
+        <v>1.435405100230093</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.412557669974038</v>
+        <v>1.456159631478694</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.369500325983522</v>
+        <v>1.674279497941568</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.39540814074549</v>
+        <v>1.760446502094374</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.30759587457027</v>
+        <v>1.643300828509783</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.42397472073956</v>
+        <v>1.438612261977305</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.563926101638806</v>
+        <v>1.614911972374421</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>1.478976769567334</v>
+        <v>1.439618370651494</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2683,10 +2683,10 @@
         <v>1</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76">
-        <v>1.558494355916577</v>
+        <v>1.574598580199313</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.544818737637332</v>
+        <v>1.823429473047861</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>1.419624715697339</v>
+        <v>1.242265726402996</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2743,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>1.337244389133041</v>
+        <v>1.383930726742049</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.355111153239533</v>
+        <v>1.613287027255274</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.463467566361291</v>
+        <v>1.657455336367334</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2803,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>1.59695655481382</v>
+        <v>1.538427537921615</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.504969237105152</v>
+        <v>1.462405124035112</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.583340593011472</v>
+        <v>1.159321597686356</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.466901398639052</v>
+        <v>1.395849204417462</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.321744681371288</v>
+        <v>1.385464764018161</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2903,10 +2903,10 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87">
-        <v>1.507576304648131</v>
+        <v>1.815492511332845</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.541305269590732</v>
+        <v>1.250052392150621</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.521630212035225</v>
+        <v>1.644147519792522</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.62561382201084</v>
+        <v>1.334274694869498</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.220420701145488</v>
+        <v>1.530467835111941</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.370278306289135</v>
+        <v>1.325559173784887</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3023,10 +3023,10 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>1.565945652360662</v>
+        <v>1.742675662554833</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.588887636338718</v>
+        <v>1.805733625424345</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.55616126220768</v>
+        <v>1.571357898185077</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.475086273167765</v>
+        <v>1.261561135596168</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.49149448177245</v>
+        <v>1.589270970493296</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.570230672770442</v>
+        <v>1.378831849570854</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3143,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>1.691049710697848</v>
+        <v>1.540308676391056</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.386880069138988</v>
+        <v>1.286771022717023</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.616462899100476</v>
+        <v>1.280500853378495</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102">
-        <v>1.384376293306587</v>
+        <v>1.465249808382278</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.651501876257822</v>
+        <v>1.57817725379925</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.53043233198583</v>
+        <v>1.328306128018552</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.279660383600475</v>
+        <v>1.451680339324901</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.718172832929264</v>
+        <v>1.563200910822691</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.424417941744841</v>
+        <v>1.543359798453809</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.50753018557426</v>
+        <v>1.402033602520285</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.448337572219047</v>
+        <v>1.849323248622081</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3363,10 +3363,10 @@
         <v>1</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>1.606734727032801</v>
+        <v>1.549592946447622</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.491247187889426</v>
+        <v>1.539200418213077</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.100006032725128</v>
+        <v>1.238902862226691</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3423,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113">
-        <v>1.551301103591312</v>
+        <v>1.816784870045525</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>1</v>
       </c>
       <c r="F114">
-        <v>1.516360724252916</v>
+        <v>1.467240864832509</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.432147712383544</v>
+        <v>1.817248646334666</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.312922258812695</v>
+        <v>1.559879077535872</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.487772901065678</v>
+        <v>1.332899093728072</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.533162834695821</v>
+        <v>1.633068542573699</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.444204950563172</v>
+        <v>1.568555936938614</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.387385954660854</v>
+        <v>1.65552002543888</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3583,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121">
-        <v>1.489042945303692</v>
+        <v>1.612403450322323</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3603,10 +3603,10 @@
         <v>1</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>1.378578017000775</v>
+        <v>1.300738285066206</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>1.561285577355494</v>
+        <v>1.30636789567905</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.614917071362226</v>
+        <v>1.563421242909718</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.479659099500204</v>
+        <v>1.45825433652645</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.772001860816137</v>
+        <v>1.572380975713424</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.471839370064286</v>
+        <v>1.631810026857452</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.573101584665618</v>
+        <v>1.614040430693155</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.738003204231977</v>
+        <v>1.21324138416276</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.642254230102833</v>
+        <v>1.716658492403279</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3783,10 +3783,10 @@
         <v>2</v>
       </c>
       <c r="E131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>1.329865947246976</v>
+        <v>1.439276095431419</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3803,10 +3803,10 @@
         <v>2</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132">
-        <v>1.507276209756339</v>
+        <v>1.369972552453752</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.718365459451112</v>
+        <v>1.712523372850058</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.747056363855787</v>
+        <v>1.274967092959109</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.365009946776085</v>
+        <v>1.50556274208667</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3883,10 +3883,10 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136">
-        <v>1.588340704167042</v>
+        <v>1.381559729803016</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3903,10 +3903,10 @@
         <v>2</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137">
-        <v>1.407188781443772</v>
+        <v>1.706022399302596</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.441481502171282</v>
+        <v>1.739185313945239</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3943,10 +3943,10 @@
         <v>2</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>1.606317690941331</v>
+        <v>1.422545980784358</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140">
-        <v>1.373175890791048</v>
+        <v>1.624861825286842</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.403828474710462</v>
+        <v>1.287569712791547</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.352595547886846</v>
+        <v>1.552091383618883</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4023,10 +4023,10 @@
         <v>2</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143">
-        <v>1.590040358643347</v>
+        <v>1.508790266529797</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4043,10 +4043,10 @@
         <v>2</v>
       </c>
       <c r="E144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>1.493577437288494</v>
+        <v>1.631599120473615</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.722343777694132</v>
+        <v>1.32243906816284</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.769224576798083</v>
+        <v>1.328565780687107</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.497767258738792</v>
+        <v>1.575034593985912</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.342715601382749</v>
+        <v>1.63620750764292</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.532336276410869</v>
+        <v>1.479421878724426</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.54326101032836</v>
+        <v>1.696582643128076</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.549804276284263</v>
+        <v>1.589567976029881</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>1.344212484968749</v>
+        <v>1.539886652321465</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.431783753594726</v>
+        <v>1.662314478422928</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.653550796600904</v>
+        <v>1.706364737523293</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.658218361344114</v>
+        <v>1.600114253231123</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.388646580687534</v>
+        <v>1.59135615252242</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.598026157521291</v>
+        <v>1.610974454926025</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.255332421332134</v>
+        <v>1.276507193245872</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.609121072243928</v>
+        <v>1.633833461093048</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.657554521109551</v>
+        <v>1.502132203814949</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.414942249351447</v>
+        <v>1.5073633061899</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.402734694453251</v>
+        <v>1.469097758956221</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.536932841463822</v>
+        <v>1.621341558513229</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4443,10 +4443,10 @@
         <v>2</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F164">
-        <v>1.64883616509278</v>
+        <v>1.721678741615915</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.901642939944722</v>
+        <v>1.540892957412515</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.587126254306906</v>
+        <v>1.826423399713034</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.708958644948164</v>
+        <v>1.364904428980689</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4523,10 +4523,10 @@
         <v>2</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F168">
-        <v>1.500819215076966</v>
+        <v>1.293929452353085</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.43821840276921</v>
+        <v>1.339562598141595</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.472678427715908</v>
+        <v>1.401811564062811</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.396188908900633</v>
+        <v>1.737355181790946</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.275779273477655</v>
+        <v>1.383955395415172</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.244119407094723</v>
+        <v>1.660277469074895</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.500598071795499</v>
+        <v>1.440061669108239</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.152178517838452</v>
+        <v>1.472441732370195</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4683,10 +4683,10 @@
         <v>2</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176">
-        <v>1.368935760866251</v>
+        <v>1.610982041157424</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.484320153378408</v>
+        <v>1.542383985524862</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.573861436278992</v>
+        <v>1.50155881911038</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.643586947352268</v>
+        <v>1.582914017422422</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4763,10 +4763,10 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>1.50353359568448</v>
+        <v>1.453308505292334</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.27279175396539</v>
+        <v>1.586172012881171</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.656839046930265</v>
+        <v>1.46766969275133</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.608653016059707</v>
+        <v>1.481193494035133</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4843,10 +4843,10 @@
         <v>2</v>
       </c>
       <c r="E184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F184">
-        <v>1.222488791822197</v>
+        <v>1.596993588869111</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.530989843285304</v>
+        <v>1.386169797668128</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4883,10 +4883,10 @@
         <v>2</v>
       </c>
       <c r="E186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F186">
-        <v>1.339525455728395</v>
+        <v>1.70293359322122</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.541198976691405</v>
+        <v>1.622064512037606</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.633920475289838</v>
+        <v>1.239345587760621</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.653302247830861</v>
+        <v>1.637978223662297</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.517954646364656</v>
+        <v>1.521574038874632</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.483881692152496</v>
+        <v>1.46323004346239</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.4499610062921</v>
+        <v>1.611809388787779</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5023,10 +5023,10 @@
         <v>2</v>
       </c>
       <c r="E193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F193">
-        <v>1.70507891293233</v>
+        <v>1.482276115107624</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.370923639744137</v>
+        <v>1.708179091970545</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.355373334600801</v>
+        <v>1.561778443607161</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.54519264201527</v>
+        <v>1.529407772512689</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.630604647256402</v>
+        <v>1.429344768508575</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5123,10 +5123,10 @@
         <v>3</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198">
-        <v>1.692726714044028</v>
+        <v>1.5687300422883</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.505937059340714</v>
+        <v>1.474638210054847</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.128639233662005</v>
+        <v>1.320967996723454</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.665179924811412</v>
+        <v>1.63055275842009</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.502914637100058</v>
+        <v>1.377800387460854</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.492997651848982</v>
+        <v>1.471922042298277</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.359682410388095</v>
+        <v>1.329923040042445</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.347145808930136</v>
+        <v>1.357644883202229</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.430011977319591</v>
+        <v>1.463693415596525</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.605860917016355</v>
+        <v>1.442867752942437</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5323,10 +5323,10 @@
         <v>3</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F208">
-        <v>1.32704976924519</v>
+        <v>1.204175993963269</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.367114703915766</v>
+        <v>1.1999506259164</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="F210">
-        <v>1.640300724230389</v>
+        <v>1.791568390492479</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.466347490345678</v>
+        <v>1.527204029181033</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5403,10 +5403,10 @@
         <v>3</v>
       </c>
       <c r="E212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F212">
-        <v>1.525301038679119</v>
+        <v>1.226617751411592</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.44726294243945</v>
+        <v>1.568042634372381</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.753886544895423</v>
+        <v>1.483058441501613</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5463,10 +5463,10 @@
         <v>3</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F215">
-        <v>1.650808481732482</v>
+        <v>1.145736148140517</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5483,10 +5483,10 @@
         <v>3</v>
       </c>
       <c r="E216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F216">
-        <v>1.233123447878278</v>
+        <v>1.48005246411013</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F217">
-        <v>1.712157747937942</v>
+        <v>1.362082975379407</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.585734895392842</v>
+        <v>1.763509560603754</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.513406627240583</v>
+        <v>1.25444002099011</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.492779299120732</v>
+        <v>1.478747871752193</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.646344493086525</v>
+        <v>1.466648493878494</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.34557778768148</v>
+        <v>1.544841856943261</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5623,10 +5623,10 @@
         <v>3</v>
       </c>
       <c r="E223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F223">
-        <v>1.551848093229329</v>
+        <v>1.833381013574943</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.288801081479416</v>
+        <v>1.421766246538507</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.708455257885421</v>
+        <v>1.733674314827272</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F226">
-        <v>1.6660948882539</v>
+        <v>1.544188006257056</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.466354580412758</v>
+        <v>1.234346382671958</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.351068408341536</v>
+        <v>1.585650083828454</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5743,10 +5743,10 @@
         <v>3</v>
       </c>
       <c r="E229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F229">
-        <v>1.337588322532961</v>
+        <v>1.500379941823705</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.425683010212698</v>
+        <v>1.393844667633749</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231">
-        <v>1.382844622517882</v>
+        <v>1.628909840568033</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.413844140600977</v>
+        <v>1.610311670881433</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.407762302016458</v>
+        <v>1.363733289195333</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.307403209789135</v>
+        <v>1.711374277170862</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5863,10 +5863,10 @@
         <v>3</v>
       </c>
       <c r="E235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F235">
-        <v>1.591972338479825</v>
+        <v>1.578036508401096</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.532499162415867</v>
+        <v>1.532857755684735</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.164421890318396</v>
+        <v>1.370547938405743</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.56542042782041</v>
+        <v>1.554814207549534</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5943,10 +5943,10 @@
         <v>3</v>
       </c>
       <c r="E239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F239">
-        <v>1.656886487797476</v>
+        <v>1.51744610093636</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.240995877489773</v>
+        <v>1.651642538308925</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.358802108016748</v>
+        <v>1.489121561791561</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6003,10 +6003,10 @@
         <v>3</v>
       </c>
       <c r="E242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F242">
-        <v>1.261828708137851</v>
+        <v>1.592797971791687</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.487687031354021</v>
+        <v>1.208844664368594</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.274311240760625</v>
+        <v>1.409914001483432</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.623379724891217</v>
+        <v>1.393051400371435</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.326717769381405</v>
+        <v>1.518399829459817</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.550527179579425</v>
+        <v>1.348675363827184</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6123,10 +6123,10 @@
         <v>3</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F248">
-        <v>1.567506116885393</v>
+        <v>1.689893901089333</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.378643317543622</v>
+        <v>1.453886174205884</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.366135692713919</v>
+        <v>1.237890051358457</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.573013694772723</v>
+        <v>1.60825758588921</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.491437592680073</v>
+        <v>1.581151427876803</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.61433300365078</v>
+        <v>1.185943883524986</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.688269123494343</v>
+        <v>1.524458224109009</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.619621623561285</v>
+        <v>1.491298749319938</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.397740598582747</v>
+        <v>1.601961022166647</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.381692306215165</v>
+        <v>1.413058403811823</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/31_localizer.xlsx
+++ b/sequences/31_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
-    <t>car</t>
-  </si>
-  <si>
-    <t>flower</t>
+    <t>house</t>
   </si>
   <si>
     <t>dog</t>
   </si>
   <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.433639287281264</v>
+        <v>1.392737394612191</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.58994809276719</v>
+        <v>1.364391758494309</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.56688439673029</v>
+        <v>1.585710023180668</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.44712613391809</v>
+        <v>1.393667562527571</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1.394511748779269</v>
+        <v>1.407570206143781</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.657961820717042</v>
+        <v>1.535259288164589</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.382863476322317</v>
+        <v>1.394472411037682</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.840967721907435</v>
+        <v>1.29428207248198</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.436180950226784</v>
+        <v>1.613559728681196</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1383,10 +1383,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1.448181898440642</v>
+        <v>1.490940518594504</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.440153663853754</v>
+        <v>1.783236441020893</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.428288572279621</v>
+        <v>1.590057816410278</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.788952700063576</v>
+        <v>1.697295656608998</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1.729021961430782</v>
+        <v>1.619458226212394</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.460194126212568</v>
+        <v>1.726590286976065</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.281469116777269</v>
+        <v>1.475712876597793</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1.557590101755598</v>
+        <v>1.324857889241495</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.318936014170538</v>
+        <v>1.507831214080774</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.345899472755099</v>
+        <v>1.650261735708856</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.514578128409182</v>
+        <v>1.48713247205906</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.671417810782097</v>
+        <v>1.353067500970083</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.552726474849968</v>
+        <v>1.448284789235726</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.66857304647848</v>
+        <v>1.551905684938097</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1.555438920838289</v>
+        <v>1.5384010428932</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1.560509158569193</v>
+        <v>1.416400730543359</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.491097800823995</v>
+        <v>1.425569906552598</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.539128811473634</v>
+        <v>1.75320711958518</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1.49196091417351</v>
+        <v>1.739571694348433</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.338173760044413</v>
+        <v>1.509474225285017</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.563986826739168</v>
+        <v>1.40656702489044</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.540343365022362</v>
+        <v>1.882829470437261</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.586380443536323</v>
+        <v>1.338269014649397</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.651210947827478</v>
+        <v>1.431068641965883</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.553730706341653</v>
+        <v>1.748341349402873</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.564281403093617</v>
+        <v>1.661924431122405</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.50545186965431</v>
+        <v>1.450460803550163</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>1.524285225325252</v>
+        <v>1.428323839737226</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="F39">
-        <v>1.610562973893537</v>
+        <v>1.508314610537301</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>1.574933391981499</v>
+        <v>1.602093912160116</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.323865740233713</v>
+        <v>1.494742434072639</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.587752423539191</v>
+        <v>1.458703242262268</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.303208113161758</v>
+        <v>1.639394809038511</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.632535721098869</v>
+        <v>1.494302641674328</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>1.616809191301864</v>
+        <v>1.254033617968466</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.347267559340336</v>
+        <v>1.415744589458825</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.604076622086668</v>
+        <v>1.606143470753295</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.371912405578942</v>
+        <v>1.481762463052706</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.420468090923037</v>
+        <v>1.679251159961052</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.521660882241702</v>
+        <v>1.565256472963921</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.384712367574745</v>
+        <v>1.410413129713654</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.602103795863368</v>
+        <v>1.496269516065445</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.519477354974184</v>
+        <v>1.647222770574241</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.614617898241725</v>
+        <v>1.746260459264388</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>1.40350615123846</v>
+        <v>1.747125781460888</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.553281065196424</v>
+        <v>1.749848631889874</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.562454298237406</v>
+        <v>1.24943203892816</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.622967628026474</v>
+        <v>1.53927632944619</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.593866073715238</v>
+        <v>1.688330716664595</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.419214332010171</v>
+        <v>1.905739025861079</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>1.513158106209933</v>
+        <v>1.407411034861097</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>1.808994309079573</v>
+        <v>1.450963682710886</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.483303470177389</v>
+        <v>1.674536876999531</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.518882953723098</v>
+        <v>1.512047755429201</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.570617298865602</v>
+        <v>1.45204909950253</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.555857056676949</v>
+        <v>1.606544896289053</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.521879988089677</v>
+        <v>1.612848134583812</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.435405100230093</v>
+        <v>1.512887584903122</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.456159631478694</v>
+        <v>1.340379214011974</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.674279497941568</v>
+        <v>1.448408009656741</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.760446502094374</v>
+        <v>1.556686323962112</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.643300828509783</v>
+        <v>1.48378316662075</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.438612261977305</v>
+        <v>1.680563633523936</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.614911972374421</v>
+        <v>1.552605201216092</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>1.439618370651494</v>
+        <v>1.589759936285315</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2683,10 +2683,10 @@
         <v>1</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>1.574598580199313</v>
+        <v>1.444802403530884</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2703,10 +2703,10 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77">
-        <v>1.823429473047861</v>
+        <v>1.761117549201393</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.242265726402996</v>
+        <v>1.478795982328795</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>1</v>
       </c>
       <c r="F79">
-        <v>1.383930726742049</v>
+        <v>1.328342163941678</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.613287027255274</v>
+        <v>1.364911393958306</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.657455336367334</v>
+        <v>1.254594014495267</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.538427537921615</v>
+        <v>1.392364617978836</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.462405124035112</v>
+        <v>1.325492831857267</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.159321597686356</v>
+        <v>1.625922421755887</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.395849204417462</v>
+        <v>1.133294728306952</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.385464764018161</v>
+        <v>1.486891327846539</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2903,10 +2903,10 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>1.815492511332845</v>
+        <v>1.596054522354973</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88">
-        <v>1.250052392150621</v>
+        <v>1.702617084098374</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.644147519792522</v>
+        <v>1.427268590024005</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.334274694869498</v>
+        <v>1.403549219851712</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.530467835111941</v>
+        <v>1.348546455342184</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.325559173784887</v>
+        <v>1.388664646251715</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.742675662554833</v>
+        <v>1.534232989531453</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.805733625424345</v>
+        <v>1.423758494105561</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.571357898185077</v>
+        <v>1.578224855301092</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.261561135596168</v>
+        <v>1.445478237777837</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.589270970493296</v>
+        <v>1.429598383845438</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3123,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98">
-        <v>1.378831849570854</v>
+        <v>1.561148732948635</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3143,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99">
-        <v>1.540308676391056</v>
+        <v>1.608506199119355</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.286771022717023</v>
+        <v>1.525424322772455</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101">
-        <v>1.280500853378495</v>
+        <v>1.532456755058475</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>1.465249808382278</v>
+        <v>1.312053229816601</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.57817725379925</v>
+        <v>1.584917664777506</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.328306128018552</v>
+        <v>1.520277063880924</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.451680339324901</v>
+        <v>1.459461186174583</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.563200910822691</v>
+        <v>1.641213670637829</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.543359798453809</v>
+        <v>1.718119072690354</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.402033602520285</v>
+        <v>1.361689519663234</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.849323248622081</v>
+        <v>1.380037127801417</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.549592946447622</v>
+        <v>1.408125308358022</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.539200418213077</v>
+        <v>1.867889321514967</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.238902862226691</v>
+        <v>1.478786421895832</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3423,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>1.816784870045525</v>
+        <v>1.487642417051021</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>1.467240864832509</v>
+        <v>1.6191521768031</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3463,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115">
-        <v>1.817248646334666</v>
+        <v>1.74179999123752</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.559879077535872</v>
+        <v>1.560634512421445</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.332899093728072</v>
+        <v>1.524639341507134</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.633068542573699</v>
+        <v>1.652810237745014</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.568555936938614</v>
+        <v>1.611358128450401</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.65552002543888</v>
+        <v>1.575699392174509</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3583,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>1.612403450322323</v>
+        <v>1.295690685540207</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.300738285066206</v>
+        <v>1.31545889528656</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.30636789567905</v>
+        <v>1.575455492003182</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124">
-        <v>1.563421242909718</v>
+        <v>1.426352103436311</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.45825433652645</v>
+        <v>1.318443899112989</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.572380975713424</v>
+        <v>1.394773758116194</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.631810026857452</v>
+        <v>1.376024912363705</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.614040430693155</v>
+        <v>1.40025593789404</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.21324138416276</v>
+        <v>1.853665109026011</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.716658492403279</v>
+        <v>1.433308402819047</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.439276095431419</v>
+        <v>1.174371742848723</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>1</v>
       </c>
       <c r="F132">
-        <v>1.369972552453752</v>
+        <v>1.493603519375753</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.712523372850058</v>
+        <v>1.555009451493893</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.274967092959109</v>
+        <v>1.774384138365888</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.50556274208667</v>
+        <v>1.55954910271771</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3883,10 +3883,10 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>1.381559729803016</v>
+        <v>1.50577109581306</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3903,10 +3903,10 @@
         <v>2</v>
       </c>
       <c r="E137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>1.706022399302596</v>
+        <v>1.37774987636022</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.739185313945239</v>
+        <v>1.567010065772885</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.422545980784358</v>
+        <v>1.405495377131723</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>1.624861825286842</v>
+        <v>1.358063582898385</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3983,10 +3983,10 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141">
-        <v>1.287569712791547</v>
+        <v>1.643260117840272</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142">
-        <v>1.552091383618883</v>
+        <v>1.443102939363623</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4023,10 +4023,10 @@
         <v>2</v>
       </c>
       <c r="E143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>1.508790266529797</v>
+        <v>1.807759409460447</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.631599120473615</v>
+        <v>1.459240818016272</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.32243906816284</v>
+        <v>1.639118094547811</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.328565780687107</v>
+        <v>1.226240193780175</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.575034593985912</v>
+        <v>1.719456341943475</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.63620750764292</v>
+        <v>1.59052611207383</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.479421878724426</v>
+        <v>1.359381324980642</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.696582643128076</v>
+        <v>1.573983327304719</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.589567976029881</v>
+        <v>1.396014457491244</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.539886652321465</v>
+        <v>1.294370414660835</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153">
-        <v>1.662314478422928</v>
+        <v>1.511606434470101</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.706364737523293</v>
+        <v>1.535789912032437</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.600114253231123</v>
+        <v>1.14202979809241</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.59135615252242</v>
+        <v>1.553520967917499</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.610974454926025</v>
+        <v>1.48868522105794</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.276507193245872</v>
+        <v>1.533571659085462</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.633833461093048</v>
+        <v>1.38379419713599</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.502132203814949</v>
+        <v>1.524573431299203</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.5073633061899</v>
+        <v>1.671960095202039</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.469097758956221</v>
+        <v>1.317989538696789</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.621341558513229</v>
+        <v>1.595663871903631</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4443,10 +4443,10 @@
         <v>2</v>
       </c>
       <c r="E164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>1.721678741615915</v>
+        <v>1.492999764134401</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.540892957412515</v>
+        <v>1.324909054993288</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.826423399713034</v>
+        <v>1.528010849239586</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167">
-        <v>1.364904428980689</v>
+        <v>1.448469127243677</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4523,10 +4523,10 @@
         <v>2</v>
       </c>
       <c r="E168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>1.293929452353085</v>
+        <v>1.713439910732643</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.339562598141595</v>
+        <v>1.202599466656581</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.401811564062811</v>
+        <v>1.215367813131141</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.737355181790946</v>
+        <v>1.524447221803457</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.383955395415172</v>
+        <v>1.349037562759708</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173">
-        <v>1.660277469074895</v>
+        <v>1.684152678257362</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174">
-        <v>1.440061669108239</v>
+        <v>1.565307045629194</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.472441732370195</v>
+        <v>1.487063077190871</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4683,10 +4683,10 @@
         <v>2</v>
       </c>
       <c r="E176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F176">
-        <v>1.610982041157424</v>
+        <v>1.425660450941048</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.542383985524862</v>
+        <v>1.782519904430938</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.50155881911038</v>
+        <v>1.474996455620516</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.582914017422422</v>
+        <v>1.236939303355112</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.453308505292334</v>
+        <v>1.30635248450231</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.586172012881171</v>
+        <v>1.495435022284772</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.46766969275133</v>
+        <v>1.510877583119406</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.481193494035133</v>
+        <v>1.492723807674642</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.596993588869111</v>
+        <v>1.613923068260751</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.386169797668128</v>
+        <v>1.571078676521707</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.70293359322122</v>
+        <v>1.677089792733848</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.622064512037606</v>
+        <v>1.606195002721944</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188">
-        <v>1.239345587760621</v>
+        <v>1.66174279219988</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.637978223662297</v>
+        <v>1.388166714159819</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.521574038874632</v>
+        <v>1.777972700611872</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.46323004346239</v>
+        <v>1.677685076393422</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.611809388787779</v>
+        <v>1.369747191462629</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.482276115107624</v>
+        <v>1.472542618290133</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.708179091970545</v>
+        <v>1.327575460028344</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.561778443607161</v>
+        <v>1.526450481388333</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.529407772512689</v>
+        <v>1.65576900699382</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.429344768508575</v>
+        <v>1.628332228525141</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5123,10 +5123,10 @@
         <v>3</v>
       </c>
       <c r="E198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F198">
-        <v>1.5687300422883</v>
+        <v>1.638825376062771</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.474638210054847</v>
+        <v>1.525743936304409</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.320967996723454</v>
+        <v>1.683178586290279</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201">
-        <v>1.63055275842009</v>
+        <v>1.583366113157144</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.377800387460854</v>
+        <v>1.161495742087755</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.471922042298277</v>
+        <v>1.667559187728832</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.329923040042445</v>
+        <v>1.498723728128182</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5263,10 +5263,10 @@
         <v>3</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F205">
-        <v>1.357644883202229</v>
+        <v>1.489376399529135</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.463693415596525</v>
+        <v>1.41400285608411</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.442867752942437</v>
+        <v>1.313247541894403</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5323,10 +5323,10 @@
         <v>3</v>
       </c>
       <c r="E208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F208">
-        <v>1.204175993963269</v>
+        <v>1.558854885638052</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.1999506259164</v>
+        <v>1.814987386033893</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="F210">
-        <v>1.791568390492479</v>
+        <v>1.599364914452448</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.527204029181033</v>
+        <v>1.693682212523545</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.226617751411592</v>
+        <v>1.65436291911434</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5423,10 +5423,10 @@
         <v>3</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F213">
-        <v>1.568042634372381</v>
+        <v>1.542970187425017</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.483058441501613</v>
+        <v>1.484414626730431</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5463,10 +5463,10 @@
         <v>3</v>
       </c>
       <c r="E215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F215">
-        <v>1.145736148140517</v>
+        <v>1.575061671674424</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.48005246411013</v>
+        <v>1.198792131720114</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F217">
-        <v>1.362082975379407</v>
+        <v>1.294119479309826</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.763509560603754</v>
+        <v>1.338319349536346</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.25444002099011</v>
+        <v>1.42583635368799</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.478747871752193</v>
+        <v>1.524844459413003</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.466648493878494</v>
+        <v>1.327826522372356</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.544841856943261</v>
+        <v>1.468429495885329</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.833381013574943</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F224">
-        <v>1.421766246538507</v>
+        <v>1.428720866366537</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.733674314827272</v>
+        <v>1.231440563522731</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="E226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F226">
-        <v>1.544188006257056</v>
+        <v>1.513129992901883</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.234346382671958</v>
+        <v>1.548816457000975</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.585650083828454</v>
+        <v>1.615347836040183</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.500379941823705</v>
+        <v>1.550966745362376</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.393844667633749</v>
+        <v>1.378373037034215</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F231">
-        <v>1.628909840568033</v>
+        <v>1.593341232905875</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.610311670881433</v>
+        <v>1.35043920708859</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.363733289195333</v>
+        <v>1.328942989263483</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F234">
-        <v>1.711374277170862</v>
+        <v>1.677508208781714</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.578036508401096</v>
+        <v>1.458066696388018</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.532857755684735</v>
+        <v>1.597243257891265</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.370547938405743</v>
+        <v>1.602606467007605</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.554814207549534</v>
+        <v>1.345892892495112</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.51744610093636</v>
+        <v>1.248102653247127</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.651642538308925</v>
+        <v>1.524970819644604</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.489121561791561</v>
+        <v>1.325020361621589</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.592797971791687</v>
+        <v>1.663698101584734</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.208844664368594</v>
+        <v>1.642780905394244</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.409914001483432</v>
+        <v>1.431900769739804</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.393051400371435</v>
+        <v>1.598042113318192</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6083,10 +6083,10 @@
         <v>3</v>
       </c>
       <c r="E246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F246">
-        <v>1.518399829459817</v>
+        <v>1.82267917499</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6103,10 +6103,10 @@
         <v>3</v>
       </c>
       <c r="E247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F247">
-        <v>1.348675363827184</v>
+        <v>1.442913585431672</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6123,10 +6123,10 @@
         <v>3</v>
       </c>
       <c r="E248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F248">
-        <v>1.689893901089333</v>
+        <v>1.280928139418024</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.453886174205884</v>
+        <v>1.444827433253779</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.237890051358457</v>
+        <v>1.51567315712882</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.60825758588921</v>
+        <v>1.608513197803061</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.581151427876803</v>
+        <v>1.501706736443513</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.185943883524986</v>
+        <v>1.753337716109426</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.524458224109009</v>
+        <v>1.87453022239189</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.491298749319938</v>
+        <v>1.449268411589543</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.601961022166647</v>
+        <v>1.506931321735452</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.413058403811823</v>
+        <v>1.564140819300994</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/31_localizer.xlsx
+++ b/sequences/31_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>house</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
     <t>face</t>
   </si>
   <si>
-    <t>house</t>
-  </si>
-  <si>
     <t>dog</t>
   </si>
   <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
     <t>flower/flower043.jpg</t>
   </si>
   <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
     <t>flower/flower038.jpg</t>
   </si>
   <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
   </si>
   <si>
     <t>flower/flower039.jpg</t>
   </si>
   <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
     <t>house/house038.jpg</t>
   </si>
   <si>
     <t>dog/dog045.jpg</t>
   </si>
   <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
   </si>
   <si>
     <t>house/house033.jpg</t>
   </si>
   <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
   </si>
   <si>
     <t>house/house061.jpg</t>
   </si>
   <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
     <t>face/face051.jpg</t>
   </si>
   <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
   </si>
   <si>
     <t>face/face050.jpg</t>
   </si>
   <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
     <t>face/face060.jpg</t>
   </si>
   <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
   </si>
   <si>
     <t>house/house052.jpg</t>
   </si>
   <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
     <t>flower/flower050.jpg</t>
   </si>
   <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
   </si>
   <si>
     <t>dog/dog066.jpg</t>
   </si>
   <si>
-    <t>dog/dog067.jpg</t>
+    <t>dog/dog070.jpg</t>
   </si>
   <si>
     <t>dog/dog073.jpg</t>
   </si>
   <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
     <t>house/house073.jpg</t>
   </si>
   <si>
-    <t>dog/dog070.jpg</t>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
   </si>
   <si>
     <t>house/house078.jpg</t>
   </si>
   <si>
-    <t>flower/flower077.jpg</t>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
   </si>
   <si>
     <t>flower/flower064.jpg</t>
   </si>
   <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
   </si>
   <si>
     <t>face/face076.jpg</t>
   </si>
   <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
   </si>
   <si>
     <t>face/face080.jpg</t>
   </si>
   <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
     <t>house/house086.jpg</t>
   </si>
   <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
   </si>
   <si>
     <t>dog/dog087.jpg</t>
   </si>
   <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
   </si>
   <si>
     <t>dog/dog092.jpg</t>
   </si>
   <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
     <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1.392737394612191</v>
+        <v>1.549032430174111</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.364391758494309</v>
+        <v>1.170600449999611</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.585710023180668</v>
+        <v>1.797838173440931</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.393667562527571</v>
+        <v>1.395734963696948</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.407570206143781</v>
+        <v>1.405976196765708</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.535259288164589</v>
+        <v>1.571239137908456</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.394472411037682</v>
+        <v>1.503854762960546</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1.29428207248198</v>
+        <v>1.686915675010789</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.613559728681196</v>
+        <v>1.489202609484422</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.490940518594504</v>
+        <v>1.545062635428911</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.783236441020893</v>
+        <v>1.634984986121547</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.590057816410278</v>
+        <v>1.48892174031171</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.697295656608998</v>
+        <v>1.79236016567979</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.619458226212394</v>
+        <v>1.36689493797429</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1.726590286976065</v>
+        <v>1.641253412367844</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.475712876597793</v>
+        <v>1.690759436555962</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>1.324857889241495</v>
+        <v>1.550911437242565</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.507831214080774</v>
+        <v>1.543667028400165</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.650261735708856</v>
+        <v>1.776160728329016</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.48713247205906</v>
+        <v>1.691040424400487</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.353067500970083</v>
+        <v>1.348646653973116</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1.448284789235726</v>
+        <v>1.299705971231367</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.551905684938097</v>
+        <v>1.274211718594448</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1.5384010428932</v>
+        <v>1.522699539359063</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>1.416400730543359</v>
+        <v>1.366594272823984</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.425569906552598</v>
+        <v>1.532027820462419</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.75320711958518</v>
+        <v>1.598756875733895</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1.739571694348433</v>
+        <v>1.721809771674476</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.509474225285017</v>
+        <v>1.481215388338641</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.40656702489044</v>
+        <v>1.224100414512705</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.882829470437261</v>
+        <v>1.420453405583096</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.338269014649397</v>
+        <v>1.360654138913993</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.431068641965883</v>
+        <v>1.431162739468295</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.748341349402873</v>
+        <v>1.766243379537853</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.661924431122405</v>
+        <v>1.562055892991795</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.450460803550163</v>
+        <v>1.476710693418408</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.428323839737226</v>
+        <v>1.623083255588786</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>1.508314610537301</v>
+        <v>1.632177657917136</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1.602093912160116</v>
+        <v>1.778116533097929</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.494742434072639</v>
+        <v>1.391706798307756</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.458703242262268</v>
+        <v>1.225426271405595</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.639394809038511</v>
+        <v>1.331430593706714</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.494302641674328</v>
+        <v>1.492596773811209</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>1.254033617968466</v>
+        <v>1.637346827007702</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.415744589458825</v>
+        <v>1.828751197434485</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.606143470753295</v>
+        <v>1.562271968487845</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.481762463052706</v>
+        <v>1.435629407395952</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>1.679251159961052</v>
+        <v>1.305852746581926</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.565256472963921</v>
+        <v>1.449708510819986</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.410413129713654</v>
+        <v>1.566500662828895</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.496269516065445</v>
+        <v>1.529426295331024</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>1.647222770574241</v>
+        <v>1.757191229303878</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.746260459264388</v>
+        <v>1.49161598041345</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>1.747125781460888</v>
+        <v>1.525132208990373</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.749848631889874</v>
+        <v>1.557162739289738</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.24943203892816</v>
+        <v>1.644605885484919</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.53927632944619</v>
+        <v>1.576542503542416</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.688330716664595</v>
+        <v>1.648298770142841</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.905739025861079</v>
+        <v>1.781528879422175</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.407411034861097</v>
+        <v>1.567297713212592</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.450963682710886</v>
+        <v>1.688002365892449</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.674536876999531</v>
+        <v>1.717432234546749</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.512047755429201</v>
+        <v>1.589633246099382</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2463,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>1.45204909950253</v>
+        <v>1.275213039909169</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.606544896289053</v>
+        <v>1.507890106883501</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.612848134583812</v>
+        <v>1.430763923608652</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.512887584903122</v>
+        <v>1.020131103736412</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>1.340379214011974</v>
+        <v>1.487354943338167</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.448408009656741</v>
+        <v>1.417903012887633</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.556686323962112</v>
+        <v>1.447458980260834</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.48378316662075</v>
+        <v>1.706953883408556</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.680563633523936</v>
+        <v>1.426478734170601</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.552605201216092</v>
+        <v>1.708125050227071</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.589759936285315</v>
+        <v>1.563474041985804</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.444802403530884</v>
+        <v>1.566369997507641</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2703,10 +2703,10 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>1.761117549201393</v>
+        <v>1.675097875865728</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.478795982328795</v>
+        <v>1.390519540756562</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2743,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>1.328342163941678</v>
+        <v>1.430188836037867</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.364911393958306</v>
+        <v>1.493517831497253</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.254594014495267</v>
+        <v>1.461138469666051</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.392364617978836</v>
+        <v>1.594080971649127</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.325492831857267</v>
+        <v>1.350283517507168</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.625922421755887</v>
+        <v>1.614969436360282</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.133294728306952</v>
+        <v>1.445078309154538</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.486891327846539</v>
+        <v>1.561477437388042</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.596054522354973</v>
+        <v>1.596071869872524</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>1.702617084098374</v>
+        <v>1.626156025610916</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.427268590024005</v>
+        <v>1.421087773098306</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.403549219851712</v>
+        <v>1.452442186367796</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.348546455342184</v>
+        <v>1.399491262406596</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.388664646251715</v>
+        <v>1.401563190227071</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.534232989531453</v>
+        <v>1.545877056165485</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.423758494105561</v>
+        <v>1.537593954425526</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.578224855301092</v>
+        <v>1.499643421429337</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.445478237777837</v>
+        <v>1.373519454416747</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3103,10 +3103,10 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97">
-        <v>1.429598383845438</v>
+        <v>1.561054731334611</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3123,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>1.561148732948635</v>
+        <v>1.59120769010511</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>1</v>
       </c>
       <c r="F99">
-        <v>1.608506199119355</v>
+        <v>1.222924486120315</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.525424322772455</v>
+        <v>1.588171142715246</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>1</v>
       </c>
       <c r="F101">
-        <v>1.532456755058475</v>
+        <v>1.405406161790405</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102">
-        <v>1.312053229816601</v>
+        <v>1.314770948963577</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.584917664777506</v>
+        <v>1.471094669534738</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.520277063880924</v>
+        <v>1.532051902915068</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.459461186174583</v>
+        <v>1.690219551940139</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.641213670637829</v>
+        <v>1.484343594535389</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.718119072690354</v>
+        <v>1.698623237745631</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.361689519663234</v>
+        <v>1.39487410864728</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3343,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109">
-        <v>1.380037127801417</v>
+        <v>1.733714545146831</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.408125308358022</v>
+        <v>1.512783799005957</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.867889321514967</v>
+        <v>1.654641419675887</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.478786421895832</v>
+        <v>1.642933495757415</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.487642417051021</v>
+        <v>1.386780023772965</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.6191521768031</v>
+        <v>1.423751629162911</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3463,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>1.74179999123752</v>
+        <v>1.64874851679226</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.560634512421445</v>
+        <v>1.572593406122948</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.524639341507134</v>
+        <v>1.479122681971284</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.652810237745014</v>
+        <v>1.401767681385148</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.611358128450401</v>
+        <v>1.543464232415383</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.575699392174509</v>
+        <v>1.442963861972513</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3583,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121">
-        <v>1.295690685540207</v>
+        <v>1.465288639596813</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.31545889528656</v>
+        <v>1.371930763695739</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.575455492003182</v>
+        <v>1.532645817645976</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>1.426352103436311</v>
+        <v>1.559785790345014</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.318443899112989</v>
+        <v>1.312151536983716</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.394773758116194</v>
+        <v>1.342882138863846</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.376024912363705</v>
+        <v>1.292950191615441</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.40025593789404</v>
+        <v>1.584607444444053</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3743,10 +3743,10 @@
         <v>1</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129">
-        <v>1.853665109026011</v>
+        <v>1.587978027985618</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.433308402819047</v>
+        <v>1.387243875836027</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.174371742848723</v>
+        <v>1.478232544962048</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>1</v>
       </c>
       <c r="F132">
-        <v>1.493603519375753</v>
+        <v>1.75338969774451</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.555009451493893</v>
+        <v>1.52297019995075</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.774384138365888</v>
+        <v>1.516326501918909</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.55954910271771</v>
+        <v>1.410497528477462</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.50577109581306</v>
+        <v>1.4451126867365</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.37774987636022</v>
+        <v>1.343364241713038</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.567010065772885</v>
+        <v>1.265271693812284</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.405495377131723</v>
+        <v>1.318629373910406</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.358063582898385</v>
+        <v>1.506265969838616</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3983,10 +3983,10 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>1.643260117840272</v>
+        <v>1.694189952502173</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="E142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>1.443102939363623</v>
+        <v>1.38363781580053</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4023,10 +4023,10 @@
         <v>2</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143">
-        <v>1.807759409460447</v>
+        <v>1.321074466690495</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.459240818016272</v>
+        <v>1.630993375441218</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.639118094547811</v>
+        <v>1.366282072786547</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.226240193780175</v>
+        <v>1.723610766982613</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.719456341943475</v>
+        <v>1.147821330201714</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.59052611207383</v>
+        <v>1.635269755798038</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.359381324980642</v>
+        <v>1.647993261927502</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.573983327304719</v>
+        <v>1.312102119905828</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.396014457491244</v>
+        <v>1.706180393061521</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.294370414660835</v>
+        <v>1.35640388946621</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>1.511606434470101</v>
+        <v>1.606334073271582</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.535789912032437</v>
+        <v>1.570334404003146</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.14202979809241</v>
+        <v>1.527538996386987</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.553520967917499</v>
+        <v>1.457393439473245</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.48868522105794</v>
+        <v>1.513862986789187</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.533571659085462</v>
+        <v>1.506436127033992</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.38379419713599</v>
+        <v>1.530968462497263</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.524573431299203</v>
+        <v>1.230400646063857</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4383,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161">
-        <v>1.671960095202039</v>
+        <v>1.412224548058622</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.317989538696789</v>
+        <v>1.64152382932238</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.595663871903631</v>
+        <v>1.337349085482832</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.492999764134401</v>
+        <v>1.334592178325948</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.324909054993288</v>
+        <v>1.332600982790525</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.528010849239586</v>
+        <v>1.33020543666349</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>1.448469127243677</v>
+        <v>1.384242710256207</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.713439910732643</v>
+        <v>1.133221982749068</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.202599466656581</v>
+        <v>1.529210317458388</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.215367813131141</v>
+        <v>1.312367821653667</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.524447221803457</v>
+        <v>1.583099161017935</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.349037562759708</v>
+        <v>1.508100679397301</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>1.684152678257362</v>
+        <v>1.595416479605688</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>1.565307045629194</v>
+        <v>1.503022518194886</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.487063077190871</v>
+        <v>1.438684209548239</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.425660450941048</v>
+        <v>1.860843235939509</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.782519904430938</v>
+        <v>1.394576414939489</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.474996455620516</v>
+        <v>1.573825273573719</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.236939303355112</v>
+        <v>1.578599230306554</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4763,10 +4763,10 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180">
-        <v>1.30635248450231</v>
+        <v>1.52871730491848</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.495435022284772</v>
+        <v>1.500643902843749</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.510877583119406</v>
+        <v>1.135740713252725</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.492723807674642</v>
+        <v>1.458813504029478</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4843,10 +4843,10 @@
         <v>2</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F184">
-        <v>1.613923068260751</v>
+        <v>1.351418808365018</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4863,10 +4863,10 @@
         <v>2</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185">
-        <v>1.571078676521707</v>
+        <v>1.681054259443544</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.677089792733848</v>
+        <v>1.599335704082884</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187">
-        <v>1.606195002721944</v>
+        <v>1.431445471283143</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>1.66174279219988</v>
+        <v>1.326547896787288</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.388166714159819</v>
+        <v>1.579307507372095</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.777972700611872</v>
+        <v>1.32422160817213</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.677685076393422</v>
+        <v>1.266591091528112</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192">
-        <v>1.369747191462629</v>
+        <v>1.473870258691415</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.472542618290133</v>
+        <v>1.531070516779501</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.327575460028344</v>
+        <v>1.335723917076137</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.526450481388333</v>
+        <v>1.5431893344972</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.65576900699382</v>
+        <v>1.70623244993131</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.628332228525141</v>
+        <v>1.482382538530477</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.638825376062771</v>
+        <v>1.632320949484418</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.525743936304409</v>
+        <v>1.520028178189505</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.683178586290279</v>
+        <v>1.567526196989665</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F201">
-        <v>1.583366113157144</v>
+        <v>1.439680487755384</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.161495742087755</v>
+        <v>1.462481310440745</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.667559187728832</v>
+        <v>1.575545859650185</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.498723728128182</v>
+        <v>1.233100472854234</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5266,7 +5266,7 @@
         <v>1</v>
       </c>
       <c r="F205">
-        <v>1.489376399529135</v>
+        <v>1.594455556141335</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.41400285608411</v>
+        <v>1.638896225471872</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5303,10 +5303,10 @@
         <v>3</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207">
-        <v>1.313247541894403</v>
+        <v>1.507638967152398</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.558854885638052</v>
+        <v>1.377668404539283</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.814987386033893</v>
+        <v>1.269907462015232</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="F210">
-        <v>1.599364914452448</v>
+        <v>1.358210833001634</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.693682212523545</v>
+        <v>1.783022866588282</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.65436291911434</v>
+        <v>1.569475189421936</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5423,10 +5423,10 @@
         <v>3</v>
       </c>
       <c r="E213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F213">
-        <v>1.542970187425017</v>
+        <v>1.313908677014204</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.484414626730431</v>
+        <v>1.403192981397015</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.575061671674424</v>
+        <v>1.753663217224649</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.198792131720114</v>
+        <v>1.656247233746483</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.294119479309826</v>
+        <v>1.699354554984796</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.338319349536346</v>
+        <v>1.32549023882837</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.42583635368799</v>
+        <v>1.168478956255111</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.524844459413003</v>
+        <v>1.581315752887495</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.327826522372356</v>
+        <v>1.356140464380833</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.468429495885329</v>
+        <v>1.287415426534038</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>2</v>
+        <v>1.401812836854638</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F224">
-        <v>1.428720866366537</v>
+        <v>1.627459561112876</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.231440563522731</v>
+        <v>1.679949479365353</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.513129992901883</v>
+        <v>1.554901977208349</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.548816457000975</v>
+        <v>1.609439976414063</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.615347836040183</v>
+        <v>1.426698307804196</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.550966745362376</v>
+        <v>1.525913683535145</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5763,10 +5763,10 @@
         <v>3</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F230">
-        <v>1.378373037034215</v>
+        <v>1.481496629725826</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231">
-        <v>1.593341232905875</v>
+        <v>1.3556239390408</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.35043920708859</v>
+        <v>1.509817704668041</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.328942989263483</v>
+        <v>1.54795129052813</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F234">
-        <v>1.677508208781714</v>
+        <v>1.303636995816054</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.458066696388018</v>
+        <v>1.584965930169149</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.597243257891265</v>
+        <v>1.402172385926244</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.602606467007605</v>
+        <v>1.401047805289348</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.345892892495112</v>
+        <v>1.431687050144454</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.248102653247127</v>
+        <v>1.485425446543188</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.524970819644604</v>
+        <v>1.271997204014516</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.325020361621589</v>
+        <v>1.274897300853981</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6003,10 +6003,10 @@
         <v>3</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F242">
-        <v>1.663698101584734</v>
+        <v>1.119921205012217</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.642780905394244</v>
+        <v>1.544549033576553</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.431900769739804</v>
+        <v>1.340762574301504</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6063,10 +6063,10 @@
         <v>3</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F245">
-        <v>1.598042113318192</v>
+        <v>1.607228521696051</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6083,10 +6083,10 @@
         <v>3</v>
       </c>
       <c r="E246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F246">
-        <v>1.82267917499</v>
+        <v>1.185222523517122</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6103,10 +6103,10 @@
         <v>3</v>
       </c>
       <c r="E247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F247">
-        <v>1.442913585431672</v>
+        <v>1.663217749310021</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.280928139418024</v>
+        <v>1.576802373969735</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.444827433253779</v>
+        <v>1.383385366487843</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.51567315712882</v>
+        <v>1.512610657263193</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6183,10 +6183,10 @@
         <v>3</v>
       </c>
       <c r="E251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F251">
-        <v>1.608513197803061</v>
+        <v>1.4090804516697</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.501706736443513</v>
+        <v>1.672409280024761</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.753337716109426</v>
+        <v>1.319631333148561</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.87453022239189</v>
+        <v>1.472900823159626</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.449268411589543</v>
+        <v>1.330445430757842</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.506931321735452</v>
+        <v>1.413517628006516</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.564140819300994</v>
+        <v>1.544974440564213</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/31_localizer.xlsx
+++ b/sequences/31_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>house</t>
   </si>
   <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>dog</t>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
   </si>
   <si>
     <t>house/house042.jpg</t>
   </si>
   <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
   </si>
   <si>
     <t>face/face032.jpg</t>
   </si>
   <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
     <t>face/face040.jpg</t>
   </si>
   <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
   </si>
   <si>
     <t>face/face063.jpg</t>
   </si>
   <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
     <t>flower/flower048.jpg</t>
   </si>
   <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
     <t>dog/dog048.jpg</t>
   </si>
   <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
+    <t>house/house056.jpg</t>
   </si>
   <si>
     <t>flower/flower057.jpg</t>
   </si>
   <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
   </si>
   <si>
     <t>face/face064.jpg</t>
   </si>
   <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
     <t>dog/dog075.jpg</t>
   </si>
   <si>
-    <t>face/face069.jpg</t>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
   </si>
   <si>
     <t>face/face078.jpg</t>
   </si>
   <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
+    <t>face/face073.jpg</t>
   </si>
   <si>
     <t>face/face072.jpg</t>
   </si>
   <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
   </si>
   <si>
     <t>flower/flower086.jpg</t>
   </si>
   <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
     <t>house/house082.jpg</t>
   </si>
   <si>
-    <t>face/face085.jpg</t>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
   </si>
   <si>
     <t>dog/dog081.jpg</t>
   </si>
   <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
     <t>dog/dog090.jpg</t>
   </si>
   <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
     <t>house/house091.jpg</t>
   </si>
   <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
   </si>
   <si>
     <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.549032430174111</v>
+        <v>1.499162523498755</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1.170600449999611</v>
+        <v>1.846774498904553</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1.797838173440931</v>
+        <v>1.359839973894995</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.395734963696948</v>
+        <v>1.604411605436585</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.405976196765708</v>
+        <v>1.487408805747467</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.571239137908456</v>
+        <v>1.542148450520584</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.503854762960546</v>
+        <v>1.604406258322728</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1.686915675010789</v>
+        <v>1.661793422558147</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1.489202609484422</v>
+        <v>1.770403893076147</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.545062635428911</v>
+        <v>1.351406432664247</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.634984986121547</v>
+        <v>1.416960461111523</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1.48892174031171</v>
+        <v>1.348247937341867</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.79236016567979</v>
+        <v>1.341496281222289</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.36689493797429</v>
+        <v>1.730005953971943</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>1.641253412367844</v>
+        <v>1.549909101256513</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.690759436555962</v>
+        <v>1.750755482281687</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.550911437242565</v>
+        <v>1.178259019816645</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.543667028400165</v>
+        <v>1.47981119088299</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.776160728329016</v>
+        <v>1.660058963212356</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.691040424400487</v>
+        <v>1.319781163287658</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.348646653973116</v>
+        <v>1.351292480929178</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1.299705971231367</v>
+        <v>1.532853343659958</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.274211718594448</v>
+        <v>1.552575710140909</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.522699539359063</v>
+        <v>1.744352200527447</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1.366594272823984</v>
+        <v>1.404821736558388</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.532027820462419</v>
+        <v>1.186459184893408</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.598756875733895</v>
+        <v>1.76163698777971</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.721809771674476</v>
+        <v>1.425192574101178</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1.481215388338641</v>
+        <v>1.647707438005608</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.224100414512705</v>
+        <v>1.536880091689656</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.420453405583096</v>
+        <v>1.298474118741462</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.360654138913993</v>
+        <v>1.510834936568979</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1.431162739468295</v>
+        <v>1.411360532491499</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.766243379537853</v>
+        <v>1.199637401911561</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.562055892991795</v>
+        <v>1.659417121668617</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.476710693418408</v>
+        <v>1.577066654366334</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.623083255588786</v>
+        <v>1.506403742787843</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.632177657917136</v>
+        <v>1.691830064685152</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.778116533097929</v>
+        <v>1.225761852630281</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.391706798307756</v>
+        <v>1.469453863864047</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.225426271405595</v>
+        <v>1.609942558067709</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.331430593706714</v>
+        <v>1.361786700706808</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.492596773811209</v>
+        <v>1.415315990009771</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.637346827007702</v>
+        <v>1.66560434922703</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.828751197434485</v>
+        <v>1.486906398453148</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.562271968487845</v>
+        <v>1.419978343369361</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.435629407395952</v>
+        <v>1.344266548448072</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>1.305852746581926</v>
+        <v>1.48334388996583</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.449708510819986</v>
+        <v>1.452315149318058</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.566500662828895</v>
+        <v>1.622629035022669</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.529426295331024</v>
+        <v>1.6605976176012</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F53">
-        <v>1.757191229303878</v>
+        <v>1.479802568890412</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.49161598041345</v>
+        <v>1.547697239013646</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.525132208990373</v>
+        <v>1.477528544940492</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>1.557162739289738</v>
+        <v>1.381648009948669</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.644605885484919</v>
+        <v>1.441502341769786</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.576542503542416</v>
+        <v>1.615982900993811</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.648298770142841</v>
+        <v>1.546804655872343</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.781528879422175</v>
+        <v>1.610316203411869</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.567297713212592</v>
+        <v>1.459861130943763</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.688002365892449</v>
+        <v>1.732646068187672</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.717432234546749</v>
+        <v>1.331956347897014</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.589633246099382</v>
+        <v>1.573927189041232</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2463,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>1.275213039909169</v>
+        <v>1.773532009788583</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2483,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>1.507890106883501</v>
+        <v>1.544392737046845</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.430763923608652</v>
+        <v>1.366751616729344</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.020131103736412</v>
+        <v>1.679317248059336</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>1.487354943338167</v>
+        <v>1.321854027954873</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.417903012887633</v>
+        <v>1.297053804674876</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.447458980260834</v>
+        <v>1.489935948279378</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.706953883408556</v>
+        <v>1.665468426610323</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.426478734170601</v>
+        <v>1.603922690406918</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.708125050227071</v>
+        <v>1.765729213058988</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.563474041985804</v>
+        <v>1.419873349785115</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.566369997507641</v>
+        <v>1.656038638950395</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.675097875865728</v>
+        <v>1.448767297010255</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.390519540756562</v>
+        <v>1.16673373115022</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.430188836037867</v>
+        <v>1.454772960458551</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.493517831497253</v>
+        <v>1.252460337393523</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.461138469666051</v>
+        <v>1.601051700758417</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.594080971649127</v>
+        <v>1.592869921322248</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.350283517507168</v>
+        <v>1.571248045268669</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.614969436360282</v>
+        <v>1.66119610102598</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.445078309154538</v>
+        <v>1.379917975117488</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.561477437388042</v>
+        <v>1.765935390132489</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.596071869872524</v>
+        <v>1.670217250343078</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.626156025610916</v>
+        <v>1.30022334293889</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.421087773098306</v>
+        <v>1.649318337330572</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.452442186367796</v>
+        <v>1.488084437918604</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.399491262406596</v>
+        <v>1.402837022420204</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.401563190227071</v>
+        <v>1.51073710201045</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.545877056165485</v>
+        <v>1.60662455501281</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.537593954425526</v>
+        <v>1.707821070492146</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95">
-        <v>1.499643421429337</v>
+        <v>1.609556773770157</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.373519454416747</v>
+        <v>1.50173770547651</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3103,10 +3103,10 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>1.561054731334611</v>
+        <v>1.508177783276</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.59120769010511</v>
+        <v>1.276007126356947</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3143,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>1.222924486120315</v>
+        <v>1.646871538818245</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.588171142715246</v>
+        <v>1.419420773580851</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>1.405406161790405</v>
+        <v>1.759240160939232</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>1.314770948963577</v>
+        <v>1.347555015550647</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.471094669534738</v>
+        <v>1.443321758810888</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.532051902915068</v>
+        <v>1.39932782335839</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105">
-        <v>1.690219551940139</v>
+        <v>1.73229882267788</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.484343594535389</v>
+        <v>1.839081841552837</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.698623237745631</v>
+        <v>1.498696477032945</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.39487410864728</v>
+        <v>1.718648786549776</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F109">
-        <v>1.733714545146831</v>
+        <v>1.523721670702127</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.512783799005957</v>
+        <v>1.506689216131042</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.654641419675887</v>
+        <v>1.738924744860225</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.642933495757415</v>
+        <v>1.845083290142389</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3423,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113">
-        <v>1.386780023772965</v>
+        <v>1.777845004282528</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.423751629162911</v>
+        <v>1.517053486820611</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.64874851679226</v>
+        <v>1.630158753995633</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.572593406122948</v>
+        <v>1.303936513741981</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.479122681971284</v>
+        <v>1.507942424179021</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.401767681385148</v>
+        <v>1.520768677318852</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.543464232415383</v>
+        <v>1.578094119444438</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.442963861972513</v>
+        <v>1.588489412931027</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3583,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>1.465288639596813</v>
+        <v>1.428856681390251</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.371930763695739</v>
+        <v>1.52966011537608</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.532645817645976</v>
+        <v>1.645378150307078</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.559785790345014</v>
+        <v>1.58058370641354</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125">
-        <v>1.312151536983716</v>
+        <v>1.350920992861019</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.342882138863846</v>
+        <v>1.565814773503899</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127">
-        <v>1.292950191615441</v>
+        <v>1.575489303286397</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.584607444444053</v>
+        <v>1.547831581858908</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>1</v>
       </c>
       <c r="F129">
-        <v>1.587978027985618</v>
+        <v>1.706390847493343</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.387243875836027</v>
+        <v>1.3799189293366</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.478232544962048</v>
+        <v>1.213896570247636</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3803,10 +3803,10 @@
         <v>2</v>
       </c>
       <c r="E132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>1.75338969774451</v>
+        <v>1.601202279815129</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.52297019995075</v>
+        <v>1.690211438562683</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3843,10 +3843,10 @@
         <v>2</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134">
-        <v>1.516326501918909</v>
+        <v>1.306100277118823</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.410497528477462</v>
+        <v>1.588007446832575</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.4451126867365</v>
+        <v>1.390516736178792</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.343364241713038</v>
+        <v>1.363955148680444</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.265271693812284</v>
+        <v>1.638764274454985</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.318629373910406</v>
+        <v>1.806159957482753</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.506265969838616</v>
+        <v>1.328010540315405</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.694189952502173</v>
+        <v>1.366348133686507</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.38363781580053</v>
+        <v>1.702606027383322</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4023,10 +4023,10 @@
         <v>2</v>
       </c>
       <c r="E143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>1.321074466690495</v>
+        <v>1.511809750098972</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4043,10 +4043,10 @@
         <v>2</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144">
-        <v>1.630993375441218</v>
+        <v>1.675214334748977</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.366282072786547</v>
+        <v>1.230202863859335</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4083,10 +4083,10 @@
         <v>2</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146">
-        <v>1.723610766982613</v>
+        <v>1.466886832779162</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.147821330201714</v>
+        <v>1.495836384018891</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.635269755798038</v>
+        <v>1.678757880270518</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.647993261927502</v>
+        <v>1.310798398997962</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.312102119905828</v>
+        <v>1.469852760074829</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.706180393061521</v>
+        <v>1.458127019655824</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.35640388946621</v>
+        <v>1.60711453825517</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.606334073271582</v>
+        <v>1.318980453267628</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.570334404003146</v>
+        <v>1.437706369685352</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.527538996386987</v>
+        <v>1.79971163244013</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.457393439473245</v>
+        <v>1.76883425297336</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.513862986789187</v>
+        <v>1.421335938733717</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.506436127033992</v>
+        <v>1.626354598558127</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.530968462497263</v>
+        <v>1.450548613345851</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.230400646063857</v>
+        <v>1.554521190407848</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4383,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>1.412224548058622</v>
+        <v>1.527192448219793</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.64152382932238</v>
+        <v>1.425404458089099</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.337349085482832</v>
+        <v>1.749280680196337</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.334592178325948</v>
+        <v>1.39786930065088</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.332600982790525</v>
+        <v>1.40715059508514</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.33020543666349</v>
+        <v>1.685587363730112</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.384242710256207</v>
+        <v>1.545563969898263</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4523,10 +4523,10 @@
         <v>2</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F168">
-        <v>1.133221982749068</v>
+        <v>1.462184715809314</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.529210317458388</v>
+        <v>1.543642814443732</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.312367821653667</v>
+        <v>1.281203628577277</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.583099161017935</v>
+        <v>1.5188422859945</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.508100679397301</v>
+        <v>1.497281228677881</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.595416479605688</v>
+        <v>1.215781719301153</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.503022518194886</v>
+        <v>1.279274826544313</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4663,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175">
-        <v>1.438684209548239</v>
+        <v>1.60681788353586</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.860843235939509</v>
+        <v>1.23449441688482</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.394576414939489</v>
+        <v>1.644724291400994</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.573825273573719</v>
+        <v>1.489337957225346</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.578599230306554</v>
+        <v>1.482061006902216</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4763,10 +4763,10 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>1.52871730491848</v>
+        <v>1.450465718414911</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.500643902843749</v>
+        <v>1.604324424703158</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.135740713252725</v>
+        <v>1.436199110247006</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183">
-        <v>1.458813504029478</v>
+        <v>1.486132597198166</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>1</v>
       </c>
       <c r="F184">
-        <v>1.351418808365018</v>
+        <v>1.533449912361847</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4863,10 +4863,10 @@
         <v>2</v>
       </c>
       <c r="E185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F185">
-        <v>1.681054259443544</v>
+        <v>1.404943148622787</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.599335704082884</v>
+        <v>1.535068600984845</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>1.431445471283143</v>
+        <v>1.437160847709761</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.326547896787288</v>
+        <v>1.181727033847908</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.579307507372095</v>
+        <v>1.504992175047699</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.32422160817213</v>
+        <v>1.553823555727274</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.266591091528112</v>
+        <v>1.388800386202659</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5006,7 +5006,7 @@
         <v>1</v>
       </c>
       <c r="F192">
-        <v>1.473870258691415</v>
+        <v>1.327691062495088</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.531070516779501</v>
+        <v>1.687041405039829</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.335723917076137</v>
+        <v>1.447517511779573</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.5431893344972</v>
+        <v>1.24193428015281</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.70623244993131</v>
+        <v>1.79499437542788</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.482382538530477</v>
+        <v>1.730853854669477</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.632320949484418</v>
+        <v>1.543193847401751</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.520028178189505</v>
+        <v>1.544803521973414</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.567526196989665</v>
+        <v>1.275823454242639</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.439680487755384</v>
+        <v>1.560523289376675</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.462481310440745</v>
+        <v>1.692923895660889</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.575545859650185</v>
+        <v>1.620932595711265</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.233100472854234</v>
+        <v>1.797787235252049</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5263,10 +5263,10 @@
         <v>3</v>
       </c>
       <c r="E205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F205">
-        <v>1.594455556141335</v>
+        <v>1.29461172340449</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.638896225471872</v>
+        <v>1.273647367628533</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5303,10 +5303,10 @@
         <v>3</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>1.507638967152398</v>
+        <v>1.356483658592903</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.377668404539283</v>
+        <v>1.452118914140832</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.269907462015232</v>
+        <v>1.51171911032726</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5363,10 +5363,10 @@
         <v>3</v>
       </c>
       <c r="E210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F210">
-        <v>1.358210833001634</v>
+        <v>1.494469495526815</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.783022866588282</v>
+        <v>1.801055918933371</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.569475189421936</v>
+        <v>1.62062826616311</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.313908677014204</v>
+        <v>1.535786419792968</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F214">
-        <v>1.403192981397015</v>
+        <v>1.452136768102218</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.753663217224649</v>
+        <v>1.48541842177351</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.656247233746483</v>
+        <v>1.562022786952276</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F217">
-        <v>1.699354554984796</v>
+        <v>1.645796919833887</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.32549023882837</v>
+        <v>1.408969645303863</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.168478956255111</v>
+        <v>1.287584659845015</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.581315752887495</v>
+        <v>1.468926377617909</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.356140464380833</v>
+        <v>1.638652261249448</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.287415426534038</v>
+        <v>1.514853912997338</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.401812836854638</v>
+        <v>1.650149129760146</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.627459561112876</v>
+        <v>1.469962660928601</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F225">
-        <v>1.679949479365353</v>
+        <v>1.346826004310533</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.554901977208349</v>
+        <v>1.583273132935796</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.609439976414063</v>
+        <v>1.528122914683579</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.426698307804196</v>
+        <v>1.713515219033863</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.525913683535145</v>
+        <v>1.738540426448076</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5763,10 +5763,10 @@
         <v>3</v>
       </c>
       <c r="E230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F230">
-        <v>1.481496629725826</v>
+        <v>1.585864578522639</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F231">
-        <v>1.3556239390408</v>
+        <v>1.447575148853001</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.509817704668041</v>
+        <v>1.503669123391191</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.54795129052813</v>
+        <v>1.185861003320779</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.303636995816054</v>
+        <v>1.600484264083149</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.584965930169149</v>
+        <v>1.377342867630326</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5883,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F236">
-        <v>1.402172385926244</v>
+        <v>1.438027655928939</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.401047805289348</v>
+        <v>1.495618062223151</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.431687050144454</v>
+        <v>1.514985958897176</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.485425446543188</v>
+        <v>1.625185557555676</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.271997204014516</v>
+        <v>1.509795209221766</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.274897300853981</v>
+        <v>1.487913285892613</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F242">
-        <v>1.119921205012217</v>
+        <v>1.456224685875113</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F243">
-        <v>1.544549033576553</v>
+        <v>1.52077781574892</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.340762574301504</v>
+        <v>1.400755389505622</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6063,10 +6063,10 @@
         <v>3</v>
       </c>
       <c r="E245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F245">
-        <v>1.607228521696051</v>
+        <v>1.396203789189641</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.185222523517122</v>
+        <v>1.505792240102976</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6103,10 +6103,10 @@
         <v>3</v>
       </c>
       <c r="E247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F247">
-        <v>1.663217749310021</v>
+        <v>1.540197853415608</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.576802373969735</v>
+        <v>1.487619372790225</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.383385366487843</v>
+        <v>1.396414725572141</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.512610657263193</v>
+        <v>1.405448854623096</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6183,10 +6183,10 @@
         <v>3</v>
       </c>
       <c r="E251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F251">
-        <v>1.4090804516697</v>
+        <v>1.59107836475559</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.672409280024761</v>
+        <v>1.42444129016444</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6223,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="E253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F253">
-        <v>1.319631333148561</v>
+        <v>1.479266604205551</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.472900823159626</v>
+        <v>1.498661422934752</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.330445430757842</v>
+        <v>1.392353458574122</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.413517628006516</v>
+        <v>1.671942499600757</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.544974440564213</v>
+        <v>1.587509557206855</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/31_localizer.xlsx
+++ b/sequences/31_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
     <t>dog</t>
   </si>
   <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>house</t>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
   </si>
   <si>
     <t>face/face043.jpg</t>
   </si>
   <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
     <t>dog/dog032.jpg</t>
   </si>
   <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
     <t>dog/dog038.jpg</t>
   </si>
   <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
     <t>face/face042.jpg</t>
   </si>
   <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
     <t>face/face039.jpg</t>
   </si>
   <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
     <t>flower/flower035.jpg</t>
   </si>
   <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
     <t>house/house045.jpg</t>
   </si>
   <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
   </si>
   <si>
     <t>house/house055.jpg</t>
   </si>
   <si>
-    <t>dog/dog059.jpg</t>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
   </si>
   <si>
     <t>house/house062.jpg</t>
   </si>
   <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
+    <t>dog/dog062.jpg</t>
   </si>
   <si>
     <t>dog/dog058.jpg</t>
   </si>
   <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
     <t>dog/dog053.jpg</t>
   </si>
   <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
   </si>
   <si>
     <t>dog/dog074.jpg</t>
   </si>
   <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
   </si>
   <si>
     <t>face/face075.jpg</t>
   </si>
   <si>
-    <t>dog/dog076.jpg</t>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
   </si>
   <si>
     <t>house/house068.jpg</t>
   </si>
   <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
     <t>flower/flower070.jpg</t>
   </si>
   <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
   </si>
   <si>
     <t>face/face093.jpg</t>
   </si>
   <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
     <t>flower/flower086.jpg</t>
   </si>
   <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
   </si>
   <si>
     <t>dog/dog087.jpg</t>
   </si>
   <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
     <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.499162523498755</v>
+        <v>1.472988265203051</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.846774498904553</v>
+        <v>1.505810765425386</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1.359839973894995</v>
+        <v>1.487673902264139</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.604411605436585</v>
+        <v>1.366368268536297</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.487408805747467</v>
+        <v>1.358862025825217</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.542148450520584</v>
+        <v>1.594749603153343</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.604406258322728</v>
+        <v>1.427907531549947</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.661793422558147</v>
+        <v>1.759699826896122</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1.770403893076147</v>
+        <v>1.707204766358346</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.351406432664247</v>
+        <v>1.518329231396233</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1403,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1.416960461111523</v>
+        <v>1.610552884933938</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1.348247937341867</v>
+        <v>1.718333967838125</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.341496281222289</v>
+        <v>1.421834160752259</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.730005953971943</v>
+        <v>1.57814222054152</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1.549909101256513</v>
+        <v>1.587100566133033</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.750755482281687</v>
+        <v>1.448019087259739</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.178259019816645</v>
+        <v>1.662179021064237</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.47981119088299</v>
+        <v>1.542074465339184</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.660058963212356</v>
+        <v>1.49918831256235</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.319781163287658</v>
+        <v>1.858435517003608</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.351292480929178</v>
+        <v>1.392695760396102</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.532853343659958</v>
+        <v>1.273476438598805</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.552575710140909</v>
+        <v>1.619170428630165</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.744352200527447</v>
+        <v>1.69400303043828</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.404821736558388</v>
+        <v>1.473402938298662</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.186459184893408</v>
+        <v>1.380719195370589</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.76163698777971</v>
+        <v>1.588587184744007</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.425192574101178</v>
+        <v>1.674027178285091</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>1.647707438005608</v>
+        <v>1.53703659325377</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.536880091689656</v>
+        <v>1.568257722946992</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1.298474118741462</v>
+        <v>1.380290206975692</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.510834936568979</v>
+        <v>1.545051481790621</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>1.411360532491499</v>
+        <v>1.215258225142763</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1.199637401911561</v>
+        <v>1.441073162604522</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1.659417121668617</v>
+        <v>1.510716341194726</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.577066654366334</v>
+        <v>1.413943120139747</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.506403742787843</v>
+        <v>1.600557272007784</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.691830064685152</v>
+        <v>1.612762276619285</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.225761852630281</v>
+        <v>1.363551407093563</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.469453863864047</v>
+        <v>1.413743768143564</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.609942558067709</v>
+        <v>1.692584344654971</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.361786700706808</v>
+        <v>1.318520093333808</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.415315990009771</v>
+        <v>1.448629261765383</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.66560434922703</v>
+        <v>1.395337854613188</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>1.486906398453148</v>
+        <v>1.311106705322264</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.419978343369361</v>
+        <v>1.658222800832193</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.344266548448072</v>
+        <v>1.581148843756528</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.48334388996583</v>
+        <v>1.266159731779886</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.452315149318058</v>
+        <v>1.359377884456925</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.622629035022669</v>
+        <v>1.570124880963523</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2203,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>1.6605976176012</v>
+        <v>1.667954694818075</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>1.479802568890412</v>
+        <v>1.469783793287117</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.547697239013646</v>
+        <v>1.657380606249726</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.477528544940492</v>
+        <v>1.236098238434194</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="F56">
-        <v>1.381648009948669</v>
+        <v>1.575146469413281</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.441502341769786</v>
+        <v>1.624718923385718</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.615982900993811</v>
+        <v>1.682451106220137</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.546804655872343</v>
+        <v>1.461241023355592</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.610316203411869</v>
+        <v>1.448316485418798</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.459861130943763</v>
+        <v>1.649968246505397</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.732646068187672</v>
+        <v>1.599469268297155</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.331956347897014</v>
+        <v>1.572090280710136</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.573927189041232</v>
+        <v>1.2578233667511</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.773532009788583</v>
+        <v>1.478710480020329</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2483,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>1.544392737046845</v>
+        <v>1.543128626895992</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.366751616729344</v>
+        <v>1.772326166919912</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.679317248059336</v>
+        <v>1.65610441042655</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.321854027954873</v>
+        <v>1.10603034244102</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.297053804674876</v>
+        <v>1.480426319687623</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2583,10 +2583,10 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71">
-        <v>1.489935948279378</v>
+        <v>1.454796620867358</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.665468426610323</v>
+        <v>1.644096325507107</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.603922690406918</v>
+        <v>1.455684399753716</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.765729213058988</v>
+        <v>1.420345583270924</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.419873349785115</v>
+        <v>1.303455562677643</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.656038638950395</v>
+        <v>1.596447082202445</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2703,10 +2703,10 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77">
-        <v>1.448767297010255</v>
+        <v>1.600981109861312</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.16673373115022</v>
+        <v>1.43404318461225</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.454772960458551</v>
+        <v>1.611457263807675</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2763,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>1.252460337393523</v>
+        <v>1.263135335752546</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.601051700758417</v>
+        <v>1.603612220678053</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.592869921322248</v>
+        <v>1.422332291825738</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.571248045268669</v>
+        <v>1.622701795196883</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.66119610102598</v>
+        <v>1.436737926975983</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.379917975117488</v>
+        <v>1.501823192350319</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.765935390132489</v>
+        <v>1.435697799335445</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.670217250343078</v>
+        <v>1.726765052661793</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.30022334293889</v>
+        <v>1.664943097559382</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.649318337330572</v>
+        <v>1.660558248790095</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.488084437918604</v>
+        <v>1.369938345960785</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2983,10 +2983,10 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91">
-        <v>1.402837022420204</v>
+        <v>1.294772551477663</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.51073710201045</v>
+        <v>1.45060945055001</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.60662455501281</v>
+        <v>1.38233824667674</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.707821070492146</v>
+        <v>1.727130114778056</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>1.609556773770157</v>
+        <v>1.318620213652403</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96">
-        <v>1.50173770547651</v>
+        <v>1.627229575437186</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.508177783276</v>
+        <v>1.437048633662256</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.276007126356947</v>
+        <v>1.410659596856902</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3143,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99">
-        <v>1.646871538818245</v>
+        <v>1.493435489710462</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.419420773580851</v>
+        <v>1.430160207358555</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.759240160939232</v>
+        <v>1.841444303997227</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.347555015550647</v>
+        <v>1.560534734340738</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.443321758810888</v>
+        <v>1.653832974204606</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3243,10 +3243,10 @@
         <v>1</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104">
-        <v>1.39932782335839</v>
+        <v>1.549205032302855</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>1.73229882267788</v>
+        <v>1.504231216733227</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.839081841552837</v>
+        <v>1.687881975837314</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.498696477032945</v>
+        <v>1.235357935293412</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.718648786549776</v>
+        <v>1.749212145602483</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3343,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>1.523721670702127</v>
+        <v>1.6081466351694</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.506689216131042</v>
+        <v>1.748401611249772</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.738924744860225</v>
+        <v>1.531454849886731</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.845083290142389</v>
+        <v>1.901954293846544</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3423,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>1.777845004282528</v>
+        <v>1.540900421663977</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.517053486820611</v>
+        <v>1.40823946971959</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.630158753995633</v>
+        <v>1.205459802517472</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116">
-        <v>1.303936513741981</v>
+        <v>1.385317857572498</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.507942424179021</v>
+        <v>1.650010634955505</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.520768677318852</v>
+        <v>1.674794492571956</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.578094119444438</v>
+        <v>1.37516778574731</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.588489412931027</v>
+        <v>1.479631901986923</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.428856681390251</v>
+        <v>1.748430098792378</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.52966011537608</v>
+        <v>1.477192449015633</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.645378150307078</v>
+        <v>1.576803476542297</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.58058370641354</v>
+        <v>1.605537809682744</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>1.350920992861019</v>
+        <v>1.316223323598704</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.565814773503899</v>
+        <v>1.522934794940329</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>1.575489303286397</v>
+        <v>1.507860450528724</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.547831581858908</v>
+        <v>1.780929835838719</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3743,10 +3743,10 @@
         <v>1</v>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>1.706390847493343</v>
+        <v>1.324275798027104</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.3799189293366</v>
+        <v>1.701594158052358</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.213896570247636</v>
+        <v>1.742912407496334</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.601202279815129</v>
+        <v>1.28821257742384</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3823,10 +3823,10 @@
         <v>2</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133">
-        <v>1.690211438562683</v>
+        <v>1.482727889140452</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3843,10 +3843,10 @@
         <v>2</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>1.306100277118823</v>
+        <v>1.39310419428836</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.588007446832575</v>
+        <v>1.618363382973857</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3883,10 +3883,10 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136">
-        <v>1.390516736178792</v>
+        <v>1.556723712480973</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.363955148680444</v>
+        <v>1.748341947472938</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3923,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138">
-        <v>1.638764274454985</v>
+        <v>1.233291831128233</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.806159957482753</v>
+        <v>1.410540895222412</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.328010540315405</v>
+        <v>1.679754039148444</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.366348133686507</v>
+        <v>1.442163128896088</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.702606027383322</v>
+        <v>1.549557774004729</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4023,10 +4023,10 @@
         <v>2</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143">
-        <v>1.511809750098972</v>
+        <v>1.638360312884631</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4043,10 +4043,10 @@
         <v>2</v>
       </c>
       <c r="E144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>1.675214334748977</v>
+        <v>1.234203336512889</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.230202863859335</v>
+        <v>1.782600516153765</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>1</v>
       </c>
       <c r="F146">
-        <v>1.466886832779162</v>
+        <v>1.567535277222698</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.495836384018891</v>
+        <v>1.303440347536729</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.678757880270518</v>
+        <v>1.406001800136884</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.310798398997962</v>
+        <v>1.335950676829842</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.469852760074829</v>
+        <v>1.571833072125056</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.458127019655824</v>
+        <v>1.478289074687383</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.60711453825517</v>
+        <v>1.577226847217631</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.318980453267628</v>
+        <v>1.408681654882254</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.437706369685352</v>
+        <v>1.499652259690244</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.79971163244013</v>
+        <v>1.463874526000018</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.76883425297336</v>
+        <v>1.812214552140497</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.421335938733717</v>
+        <v>1.350120565469461</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.626354598558127</v>
+        <v>1.487708456353289</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.450548613345851</v>
+        <v>1.533811315585748</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.554521190407848</v>
+        <v>1.093800801243047</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.527192448219793</v>
+        <v>1.454458311696802</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.425404458089099</v>
+        <v>1.482592650716158</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.749280680196337</v>
+        <v>1.671734145706876</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.39786930065088</v>
+        <v>1.53312208573665</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.40715059508514</v>
+        <v>1.426744030995654</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.685587363730112</v>
+        <v>1.662341418944485</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.545563969898263</v>
+        <v>1.551540111809601</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4523,10 +4523,10 @@
         <v>2</v>
       </c>
       <c r="E168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>1.462184715809314</v>
+        <v>1.515861765569693</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.543642814443732</v>
+        <v>1.482060037743225</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.281203628577277</v>
+        <v>1.245876392335727</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.5188422859945</v>
+        <v>1.577475522542366</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.497281228677881</v>
+        <v>1.563073568246053</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.215781719301153</v>
+        <v>1.77829277556997</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.279274826544313</v>
+        <v>1.464936724403983</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4663,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="E175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F175">
-        <v>1.60681788353586</v>
+        <v>1.482979441603729</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.23449441688482</v>
+        <v>1.570164634236561</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4703,10 +4703,10 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177">
-        <v>1.644724291400994</v>
+        <v>1.534622833734129</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.489337957225346</v>
+        <v>1.330792342062898</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.482061006902216</v>
+        <v>1.527033408274408</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.450465718414911</v>
+        <v>1.283152619701615</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.604324424703158</v>
+        <v>1.548326623473757</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.436199110247006</v>
+        <v>1.645832972472091</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>1</v>
       </c>
       <c r="F183">
-        <v>1.486132597198166</v>
+        <v>1.547109545797853</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4843,10 +4843,10 @@
         <v>2</v>
       </c>
       <c r="E184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F184">
-        <v>1.533449912361847</v>
+        <v>1.398988143385575</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.404943148622787</v>
+        <v>1.332481611289659</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.535068600984845</v>
+        <v>1.251283070383008</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.437160847709761</v>
+        <v>1.474185663251075</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188">
-        <v>1.181727033847908</v>
+        <v>1.641559553284716</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.504992175047699</v>
+        <v>1.672783113988586</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.553823555727274</v>
+        <v>1.447330372838112</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.388800386202659</v>
+        <v>1.378323736915031</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F192">
-        <v>1.327691062495088</v>
+        <v>1.443368006071631</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.687041405039829</v>
+        <v>1.151695029199685</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194">
-        <v>1.447517511779573</v>
+        <v>1.39310576521082</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.24193428015281</v>
+        <v>1.773278991685845</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.79499437542788</v>
+        <v>1.367617602200095</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.730853854669477</v>
+        <v>1.853269040442359</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.543193847401751</v>
+        <v>1.57249338254942</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.544803521973414</v>
+        <v>1.454995167376884</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.275823454242639</v>
+        <v>1.352954765575788</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.560523289376675</v>
+        <v>1.59156300289479</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.692923895660889</v>
+        <v>1.454282526024597</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.620932595711265</v>
+        <v>1.397852634877289</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.797787235252049</v>
+        <v>1.281961451811405</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.29461172340449</v>
+        <v>1.486565755120643</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5283,10 +5283,10 @@
         <v>3</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206">
-        <v>1.273647367628533</v>
+        <v>1.67245936602551</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.356483658592903</v>
+        <v>1.411942202219678</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.452118914140832</v>
+        <v>1.141402697512207</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.51171911032726</v>
+        <v>1.452388877309872</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.494469495526815</v>
+        <v>1.528957238479052</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.801055918933371</v>
+        <v>1.279066887615367</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.62062826616311</v>
+        <v>1.510710801420663</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5423,10 +5423,10 @@
         <v>3</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F213">
-        <v>1.535786419792968</v>
+        <v>1.633697963838867</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F214">
-        <v>1.452136768102218</v>
+        <v>1.343498344079126</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.48541842177351</v>
+        <v>1.629775122314606</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.562022786952276</v>
+        <v>1.654870072449613</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F217">
-        <v>1.645796919833887</v>
+        <v>1.628795566546666</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.408969645303863</v>
+        <v>1.267450992447058</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.287584659845015</v>
+        <v>1.545680389842528</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5563,10 +5563,10 @@
         <v>3</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F220">
-        <v>1.468926377617909</v>
+        <v>1.625068062850249</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5583,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F221">
-        <v>1.638652261249448</v>
+        <v>1.479749733819739</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.514853912997338</v>
+        <v>1.681611639757274</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.650149129760146</v>
+        <v>1.873558779278443</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.469962660928601</v>
+        <v>1.453113768045014</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F225">
-        <v>1.346826004310533</v>
+        <v>1.536026550338775</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.583273132935796</v>
+        <v>1.46071470229656</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.528122914683579</v>
+        <v>1.607502650733861</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.713515219033863</v>
+        <v>1.556408591105781</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.738540426448076</v>
+        <v>1.353749049855118</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.585864578522639</v>
+        <v>1.618426688551168</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.447575148853001</v>
+        <v>1.394385996116779</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.503669123391191</v>
+        <v>1.634645796195056</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.185861003320779</v>
+        <v>1.637159357543654</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F234">
-        <v>1.600484264083149</v>
+        <v>1.59909686943952</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.377342867630326</v>
+        <v>1.568274394888854</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5883,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F236">
-        <v>1.438027655928939</v>
+        <v>1.466137269915205</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.495618062223151</v>
+        <v>1.565969506256033</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5923,10 +5923,10 @@
         <v>3</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F238">
-        <v>1.514985958897176</v>
+        <v>1.597498006846131</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.625185557555676</v>
+        <v>1.403523966902802</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.509795209221766</v>
+        <v>1.627893102833999</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.487913285892613</v>
+        <v>1.773227614926338</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6003,10 +6003,10 @@
         <v>3</v>
       </c>
       <c r="E242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F242">
-        <v>1.456224685875113</v>
+        <v>1.501225419497865</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="E243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F243">
-        <v>1.52077781574892</v>
+        <v>1.160688694777307</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.400755389505622</v>
+        <v>1.426177389394721</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.396203789189641</v>
+        <v>1.383175984245501</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.505792240102976</v>
+        <v>1.502084387711368</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6103,10 +6103,10 @@
         <v>3</v>
       </c>
       <c r="E247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F247">
-        <v>1.540197853415608</v>
+        <v>1.950737159265796</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.487619372790225</v>
+        <v>1.683085624978646</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.396414725572141</v>
+        <v>1.477978785898204</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.405448854623096</v>
+        <v>1.505815101847791</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.59107836475559</v>
+        <v>1.686542330389484</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F252">
-        <v>1.42444129016444</v>
+        <v>1.523543539066953</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6223,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="E253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F253">
-        <v>1.479266604205551</v>
+        <v>1.583043870577593</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.498661422934752</v>
+        <v>1.51817446583935</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.392353458574122</v>
+        <v>1.446479275955159</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.671942499600757</v>
+        <v>1.534759451407838</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.587509557206855</v>
+        <v>1.471736107810294</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/31_localizer.xlsx
+++ b/sequences/31_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>house</t>
   </si>
   <si>
-    <t>flower</t>
-  </si>
-  <si>
     <t>face</t>
   </si>
   <si>
     <t>dog</t>
   </si>
   <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
     <t>house/house036.jpg</t>
   </si>
   <si>
-    <t>flower/flower040.jpg</t>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
   </si>
   <si>
     <t>flower/flower042.jpg</t>
   </si>
   <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
   </si>
   <si>
     <t>face/face047.jpg</t>
   </si>
   <si>
-    <t>dog/dog036.jpg</t>
+    <t>dog/dog047.jpg</t>
   </si>
   <si>
     <t>house/house044.jpg</t>
   </si>
   <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
   </si>
   <si>
     <t>face/face050.jpg</t>
   </si>
   <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
+    <t>flower/flower058.jpg</t>
   </si>
   <si>
     <t>house/house056.jpg</t>
   </si>
   <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
   </si>
   <si>
     <t>house/house069.jpg</t>
   </si>
   <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
     <t>face/face077.jpg</t>
   </si>
   <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
   </si>
   <si>
     <t>face/face080.jpg</t>
   </si>
   <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
     <t>dog/dog091.jpg</t>
   </si>
   <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
     <t>flower/flower094.jpg</t>
   </si>
   <si>
-    <t>flower/flower096.jpg</t>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
   </si>
   <si>
     <t>flower/flower093.jpg</t>
   </si>
   <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
   </si>
   <si>
     <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1.472988265203051</v>
+        <v>1.40516844487946</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1.505810765425386</v>
+        <v>1.472840547126066</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.487673902264139</v>
+        <v>1.5624242287976</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.366368268536297</v>
+        <v>1.490210867949733</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.358862025825217</v>
+        <v>1.528855377704774</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.594749603153343</v>
+        <v>1.480793542703821</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.427907531549947</v>
+        <v>1.588462124453137</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.759699826896122</v>
+        <v>1.729567312583327</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.707204766358346</v>
+        <v>1.704069411041117</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.518329231396233</v>
+        <v>1.38570943360647</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1403,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1.610552884933938</v>
+        <v>1.237519909494948</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1.718333967838125</v>
+        <v>1.605301736596188</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.421834160752259</v>
+        <v>1.649538265057246</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.57814222054152</v>
+        <v>1.657154231998543</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>1.587100566133033</v>
+        <v>1.494421288424434</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.448019087259739</v>
+        <v>1.190279994020274</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.662179021064237</v>
+        <v>1.122211278351671</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.542074465339184</v>
+        <v>1.301923293768454</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.49918831256235</v>
+        <v>1.655678440475119</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.858435517003608</v>
+        <v>1.514163521963328</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.392695760396102</v>
+        <v>1.821899868444994</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.273476438598805</v>
+        <v>1.593795511189766</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.619170428630165</v>
+        <v>1.403887155900212</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.69400303043828</v>
+        <v>1.397535507829848</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.473402938298662</v>
+        <v>1.636898432445091</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.380719195370589</v>
+        <v>1.410412349146731</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.588587184744007</v>
+        <v>1.396936941165576</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1.674027178285091</v>
+        <v>1.243094352114152</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.53703659325377</v>
+        <v>1.777109908192711</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.568257722946992</v>
+        <v>1.6431232245016</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1.380290206975692</v>
+        <v>1.23308162079683</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.545051481790621</v>
+        <v>1.312976174461866</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.215258225142763</v>
+        <v>1.610696120760114</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>1.441073162604522</v>
+        <v>1.394541554423476</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>1.510716341194726</v>
+        <v>1.899550104757652</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.413943120139747</v>
+        <v>1.528366873791524</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.600557272007784</v>
+        <v>1.454387377854427</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>1.612762276619285</v>
+        <v>1.549610593265497</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.363551407093563</v>
+        <v>1.627369944641359</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.413743768143564</v>
+        <v>1.653823662993909</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.692584344654971</v>
+        <v>1.643430819921437</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.318520093333808</v>
+        <v>1.44564824579035</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.448629261765383</v>
+        <v>1.482653805055111</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.395337854613188</v>
+        <v>1.815283345554007</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>1.311106705322264</v>
+        <v>1.447005104752515</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.658222800832193</v>
+        <v>1.621144706462937</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.581148843756528</v>
+        <v>1.36627386312385</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.266159731779886</v>
+        <v>1.406903199682502</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>1.359377884456925</v>
+        <v>1.741870599344466</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.570124880963523</v>
+        <v>1.636325186960434</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2203,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>1.667954694818075</v>
+        <v>1.476295990409144</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.469783793287117</v>
+        <v>1.556455366894618</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>1.657380606249726</v>
+        <v>1.596478683386239</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>1.236098238434194</v>
+        <v>1.482918509100866</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>1.575146469413281</v>
+        <v>1.365618963309781</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.624718923385718</v>
+        <v>1.590669873863693</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.682451106220137</v>
+        <v>1.417021010476232</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.461241023355592</v>
+        <v>1.648493203152302</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.448316485418798</v>
+        <v>1.7215638976915</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.649968246505397</v>
+        <v>1.491365741460831</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.599469268297155</v>
+        <v>1.759393576037688</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.572090280710136</v>
+        <v>1.500436750208414</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.2578233667511</v>
+        <v>1.279672243153025</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.478710480020329</v>
+        <v>1.608607299043569</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.543128626895992</v>
+        <v>1.624918048402499</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.772326166919912</v>
+        <v>1.485090846734189</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.65610441042655</v>
+        <v>1.515502365169394</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.10603034244102</v>
+        <v>1.731163385931008</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.480426319687623</v>
+        <v>1.646780416405707</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2583,10 +2583,10 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>1.454796620867358</v>
+        <v>1.422303275990157</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2603,10 +2603,10 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72">
-        <v>1.644096325507107</v>
+        <v>1.427865653069658</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.455684399753716</v>
+        <v>1.26615687124135</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.420345583270924</v>
+        <v>1.457115643605791</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.303455562677643</v>
+        <v>1.791434627456251</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.596447082202445</v>
+        <v>1.595476815700629</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2703,10 +2703,10 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>1.600981109861312</v>
+        <v>1.338111607747256</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.43404318461225</v>
+        <v>1.488700149333976</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.611457263807675</v>
+        <v>1.429174658701802</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2763,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>1.263135335752546</v>
+        <v>1.488083664653835</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.603612220678053</v>
+        <v>1.431355640899544</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.422332291825738</v>
+        <v>1.396089977150002</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.622701795196883</v>
+        <v>1.537773304409937</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.436737926975983</v>
+        <v>1.822418676021798</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.501823192350319</v>
+        <v>1.48923845610991</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.435697799335445</v>
+        <v>1.574509145529138</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.726765052661793</v>
+        <v>1.611376461119417</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88">
-        <v>1.664943097559382</v>
+        <v>1.65080401018157</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.660558248790095</v>
+        <v>1.264703759429834</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.369938345960785</v>
+        <v>1.652514217924601</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2983,10 +2983,10 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>1.294772551477663</v>
+        <v>1.515409989736771</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.45060945055001</v>
+        <v>1.40928389470573</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.38233824667674</v>
+        <v>1.858137812988633</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.727130114778056</v>
+        <v>1.369011990155427</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.318620213652403</v>
+        <v>1.285657107338407</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>1.627229575437186</v>
+        <v>1.661650686116588</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.437048633662256</v>
+        <v>1.603785573042927</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.410659596856902</v>
+        <v>1.534824300999679</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3143,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>1.493435489710462</v>
+        <v>1.624221103402516</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.430160207358555</v>
+        <v>1.595244068927086</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.841444303997227</v>
+        <v>1.34249154520466</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.560534734340738</v>
+        <v>1.552702187091076</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3223,10 +3223,10 @@
         <v>1</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103">
-        <v>1.653832974204606</v>
+        <v>1.552299875495791</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>1</v>
       </c>
       <c r="F104">
-        <v>1.549205032302855</v>
+        <v>1.587003121644019</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.504231216733227</v>
+        <v>1.528874576404422</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.687881975837314</v>
+        <v>1.733008181888131</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.235357935293412</v>
+        <v>1.279501088403863</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.749212145602483</v>
+        <v>1.461488622273286</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.6081466351694</v>
+        <v>1.446353904053626</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.748401611249772</v>
+        <v>1.593236590969924</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3383,10 +3383,10 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111">
-        <v>1.531454849886731</v>
+        <v>1.241928465597448</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.901954293846544</v>
+        <v>1.549244020044792</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.540900421663977</v>
+        <v>1.29316543215313</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.40823946971959</v>
+        <v>1.280870024916548</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.205459802517472</v>
+        <v>1.494420717736249</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F116">
-        <v>1.385317857572498</v>
+        <v>1.511549068208264</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.650010634955505</v>
+        <v>1.504978818146244</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.674794492571956</v>
+        <v>1.302411995572732</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119">
-        <v>1.37516778574731</v>
+        <v>1.407679318237607</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.479631901986923</v>
+        <v>1.491609333665939</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.748430098792378</v>
+        <v>1.799706866755549</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.477192449015633</v>
+        <v>1.457255849917072</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.576803476542297</v>
+        <v>1.49519747149426</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.605537809682744</v>
+        <v>1.481396962560985</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.316223323598704</v>
+        <v>1.518622016704753</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.522934794940329</v>
+        <v>1.622694521077217</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127">
-        <v>1.507860450528724</v>
+        <v>1.134349242894797</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.780929835838719</v>
+        <v>1.627386178038031</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.324275798027104</v>
+        <v>1.37801380619659</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.701594158052358</v>
+        <v>1.534403733746476</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.742912407496334</v>
+        <v>1.469491233874854</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.28821257742384</v>
+        <v>1.429523478606951</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3823,10 +3823,10 @@
         <v>2</v>
       </c>
       <c r="E133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>1.482727889140452</v>
+        <v>1.583731342860017</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.39310419428836</v>
+        <v>1.174830670459535</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.618363382973857</v>
+        <v>1.410398318591354</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3883,10 +3883,10 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>1.556723712480973</v>
+        <v>1.336093088115218</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.748341947472938</v>
+        <v>1.659470926999579</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3923,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>1.233291831128233</v>
+        <v>1.643856759380034</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.410540895222412</v>
+        <v>1.591145519773189</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140">
-        <v>1.679754039148444</v>
+        <v>1.375158913738048</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3983,10 +3983,10 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141">
-        <v>1.442163128896088</v>
+        <v>1.705764613362183</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.549557774004729</v>
+        <v>1.263679606417673</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4023,10 +4023,10 @@
         <v>2</v>
       </c>
       <c r="E143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>1.638360312884631</v>
+        <v>1.290082884759103</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.234203336512889</v>
+        <v>1.619070868990813</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.782600516153765</v>
+        <v>1.855358746889278</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4083,10 +4083,10 @@
         <v>2</v>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>1.567535277222698</v>
+        <v>1.497618284333161</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.303440347536729</v>
+        <v>1.61373063894447</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4123,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148">
-        <v>1.406001800136884</v>
+        <v>1.494601084793603</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.335950676829842</v>
+        <v>1.40657243613145</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.571833072125056</v>
+        <v>1.22860834143503</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.478289074687383</v>
+        <v>1.388347997637342</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.577226847217631</v>
+        <v>1.600245922924384</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.408681654882254</v>
+        <v>1.562567488473074</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.499652259690244</v>
+        <v>1.250415891867161</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4263,10 +4263,10 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155">
-        <v>1.463874526000018</v>
+        <v>1.494129367085553</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4283,10 +4283,10 @@
         <v>2</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156">
-        <v>1.812214552140497</v>
+        <v>1.346001634652456</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.350120565469461</v>
+        <v>1.380735456291797</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.487708456353289</v>
+        <v>1.633940077803804</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.533811315585748</v>
+        <v>1.37840706305453</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.093800801243047</v>
+        <v>1.290571848029316</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.454458311696802</v>
+        <v>1.48853810631559</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.482592650716158</v>
+        <v>1.666456537723457</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.671734145706876</v>
+        <v>1.550197959983102</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.53312208573665</v>
+        <v>1.448003368407794</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.426744030995654</v>
+        <v>1.56702591636228</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.662341418944485</v>
+        <v>1.453701457213637</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.551540111809601</v>
+        <v>1.505819679829829</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.515861765569693</v>
+        <v>1.797486556588837</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.482060037743225</v>
+        <v>1.562994219476915</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.245876392335727</v>
+        <v>1.221199789902619</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4583,10 +4583,10 @@
         <v>2</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F171">
-        <v>1.577475522542366</v>
+        <v>1.490608577817368</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4603,10 +4603,10 @@
         <v>2</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F172">
-        <v>1.563073568246053</v>
+        <v>1.464297380345015</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.77829277556997</v>
+        <v>1.392147897506576</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.464936724403983</v>
+        <v>1.13709950503216</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.482979441603729</v>
+        <v>1.614689432680576</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.570164634236561</v>
+        <v>1.567807314571796</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4703,10 +4703,10 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177">
-        <v>1.534622833734129</v>
+        <v>1.647802853231916</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.330792342062898</v>
+        <v>1.268018034621188</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.527033408274408</v>
+        <v>1.566896384409045</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.283152619701615</v>
+        <v>1.418046966359645</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.548326623473757</v>
+        <v>1.49233179650082</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.645832972472091</v>
+        <v>1.591483655547316</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>1.547109545797853</v>
+        <v>1.57117625940826</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.398988143385575</v>
+        <v>1.43834190618718</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.332481611289659</v>
+        <v>1.153051337417712</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.251283070383008</v>
+        <v>1.418659303062937</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.474185663251075</v>
+        <v>1.25058775249827</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>1.641559553284716</v>
+        <v>1.517231705696588</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4943,10 +4943,10 @@
         <v>2</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189">
-        <v>1.672783113988586</v>
+        <v>1.40303450171962</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.447330372838112</v>
+        <v>1.51560841551764</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.378323736915031</v>
+        <v>1.480562756740413</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.443368006071631</v>
+        <v>1.777298899636384</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.151695029199685</v>
+        <v>1.703978180241115</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>1.39310576521082</v>
+        <v>1.449536855650874</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.773278991685845</v>
+        <v>1.650849225187909</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.367617602200095</v>
+        <v>1.679288774206599</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.853269040442359</v>
+        <v>1.36081829907045</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.57249338254942</v>
+        <v>1.367580881627071</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.454995167376884</v>
+        <v>1.503417276380402</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.352954765575788</v>
+        <v>1.630538562355468</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201">
-        <v>1.59156300289479</v>
+        <v>1.513927132035582</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.454282526024597</v>
+        <v>1.519904157174533</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.397852634877289</v>
+        <v>1.470360781869789</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.281961451811405</v>
+        <v>1.729578137477159</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5263,10 +5263,10 @@
         <v>3</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F205">
-        <v>1.486565755120643</v>
+        <v>1.32202358882525</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5283,10 +5283,10 @@
         <v>3</v>
       </c>
       <c r="E206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F206">
-        <v>1.67245936602551</v>
+        <v>1.515319155089931</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.411942202219678</v>
+        <v>1.526059865734484</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.141402697512207</v>
+        <v>1.513260202073366</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.452388877309872</v>
+        <v>1.239619128511904</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.528957238479052</v>
+        <v>1.69769343451573</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.279066887615367</v>
+        <v>1.716716086139201</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.510710801420663</v>
+        <v>1.403471052985402</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5423,10 +5423,10 @@
         <v>3</v>
       </c>
       <c r="E213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F213">
-        <v>1.633697963838867</v>
+        <v>1.528958557933435</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.343498344079126</v>
+        <v>1.805523198726704</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.629775122314606</v>
+        <v>1.498228922718706</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.654870072449613</v>
+        <v>1.675110048124693</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.628795566546666</v>
+        <v>1.49162158256573</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.267450992447058</v>
+        <v>1.589844234657566</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.545680389842528</v>
+        <v>1.362172137931547</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5563,10 +5563,10 @@
         <v>3</v>
       </c>
       <c r="E220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F220">
-        <v>1.625068062850249</v>
+        <v>1.5222910837812</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5583,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="E221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F221">
-        <v>1.479749733819739</v>
+        <v>1.539033497875316</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.681611639757274</v>
+        <v>1.41162856918522</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.873558779278443</v>
+        <v>1.3161108844626</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F224">
-        <v>1.453113768045014</v>
+        <v>1.555448262902335</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.536026550338775</v>
+        <v>1.505909699093977</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F226">
-        <v>1.46071470229656</v>
+        <v>1.443234821557557</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5703,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F227">
-        <v>1.607502650733861</v>
+        <v>1.577995664181109</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.556408591105781</v>
+        <v>1.644462759749481</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5743,10 +5743,10 @@
         <v>3</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F229">
-        <v>1.353749049855118</v>
+        <v>1.269779070292642</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.618426688551168</v>
+        <v>1.731671013401345</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231">
-        <v>1.394385996116779</v>
+        <v>1.376070869154994</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.634645796195056</v>
+        <v>1.663882796813362</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.637159357543654</v>
+        <v>1.430443088574586</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F234">
-        <v>1.59909686943952</v>
+        <v>1.595886451744185</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.568274394888854</v>
+        <v>1.843697124673121</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.466137269915205</v>
+        <v>1.754230589186438</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.565969506256033</v>
+        <v>1.58079951482512</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5923,10 +5923,10 @@
         <v>3</v>
       </c>
       <c r="E238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F238">
-        <v>1.597498006846131</v>
+        <v>1.38501951131943</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.403523966902802</v>
+        <v>1.632341929836799</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.627893102833999</v>
+        <v>1.419236732100081</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.773227614926338</v>
+        <v>1.37280707316763</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.501225419497865</v>
+        <v>1.583803122108675</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.160688694777307</v>
+        <v>1.288504550625143</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.426177389394721</v>
+        <v>1.586565957307549</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.383175984245501</v>
+        <v>1.603642870431756</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.502084387711368</v>
+        <v>1.418667081770033</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.950737159265796</v>
+        <v>1.613977884693315</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.683085624978646</v>
+        <v>1.504900210253363</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.477978785898204</v>
+        <v>1.567601275542485</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.505815101847791</v>
+        <v>1.412888856625653</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6183,10 +6183,10 @@
         <v>3</v>
       </c>
       <c r="E251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F251">
-        <v>1.686542330389484</v>
+        <v>1.419288138326911</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F252">
-        <v>1.523543539066953</v>
+        <v>1.36629423191055</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.583043870577593</v>
+        <v>1.398164130337543</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.51817446583935</v>
+        <v>1.553170530642211</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.446479275955159</v>
+        <v>1.30751662322674</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.534759451407838</v>
+        <v>1.548729412516858</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.471736107810294</v>
+        <v>1.534823384709582</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/31_localizer.xlsx
+++ b/sequences/31_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
-    <t>house</t>
-  </si>
-  <si>
     <t>face</t>
   </si>
   <si>
-    <t>dog</t>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
   </si>
   <si>
     <t>flower/flower043.jpg</t>
   </si>
   <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
   </si>
   <si>
     <t>dog/dog041.jpg</t>
   </si>
   <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
   </si>
   <si>
     <t>face/face043.jpg</t>
   </si>
   <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
   </si>
   <si>
     <t>dog/dog035.jpg</t>
   </si>
   <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
   </si>
   <si>
     <t>flower/flower064.jpg</t>
   </si>
   <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
     <t>face/face048.jpg</t>
   </si>
   <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
+    <t>face/face050.jpg</t>
   </si>
   <si>
     <t>flower/flower051.jpg</t>
   </si>
   <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
   </si>
   <si>
     <t>dog/dog079.jpg</t>
   </si>
   <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
     <t>house/house064.jpg</t>
   </si>
   <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
     <t>face/face075.jpg</t>
   </si>
   <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
     <t>house/house070.jpg</t>
   </si>
   <si>
-    <t>dog/dog071.jpg</t>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
   </si>
   <si>
     <t>house/house075.jpg</t>
   </si>
   <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
   </si>
   <si>
     <t>dog/dog072.jpg</t>
   </si>
   <si>
-    <t>flower/flower073.jpg</t>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
   </si>
   <si>
     <t>dog/dog077.jpg</t>
   </si>
   <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
   </si>
   <si>
     <t>flower/flower068.jpg</t>
   </si>
   <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
     <t>face/face071.jpg</t>
   </si>
   <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
+    <t>flower/flower078.jpg</t>
   </si>
   <si>
     <t>flower/flower071.jpg</t>
   </si>
   <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
   </si>
   <si>
     <t>flower/flower084.jpg</t>
   </si>
   <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
     <t>flower/flower097.jpg</t>
   </si>
   <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
   </si>
   <si>
     <t>dog/dog088.jpg</t>
   </si>
   <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
     <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.40516844487946</v>
+        <v>1.48963076785303</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.472840547126066</v>
+        <v>1.339711841959597</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.5624242287976</v>
+        <v>1.457281433303437</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.490210867949733</v>
+        <v>1.799659965308665</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.528855377704774</v>
+        <v>1.35360320659026</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.480793542703821</v>
+        <v>1.402281815651148</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.588462124453137</v>
+        <v>1.509906624487399</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.729567312583327</v>
+        <v>1.770925031482425</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.704069411041117</v>
+        <v>1.290660805290484</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1383,10 +1383,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1.38570943360647</v>
+        <v>1.291795974279749</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.237519909494948</v>
+        <v>1.420048762975064</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1.605301736596188</v>
+        <v>1.482226887189512</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.649538265057246</v>
+        <v>1.897321163236336</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.657154231998543</v>
+        <v>1.396050767420757</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.494421288424434</v>
+        <v>1.373698442878489</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.190279994020274</v>
+        <v>1.503388817538218</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.122211278351671</v>
+        <v>1.489416434103674</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.301923293768454</v>
+        <v>1.634423187096449</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.655678440475119</v>
+        <v>1.58290227274882</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.514163521963328</v>
+        <v>1.452969854078722</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.821899868444994</v>
+        <v>1.502203953916149</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.593795511189766</v>
+        <v>1.433752706222319</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.403887155900212</v>
+        <v>1.353114099201772</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.397535507829848</v>
+        <v>1.659022362939756</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.636898432445091</v>
+        <v>1.325082549205667</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1.410412349146731</v>
+        <v>1.218746535975277</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.396936941165576</v>
+        <v>1.405067485695424</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1.243094352114152</v>
+        <v>1.480488720926555</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.777109908192711</v>
+        <v>1.525525157816988</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.6431232245016</v>
+        <v>1.302008185125524</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.23308162079683</v>
+        <v>1.691838631049022</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.312976174461866</v>
+        <v>1.386741937185225</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.610696120760114</v>
+        <v>1.595950252960413</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.394541554423476</v>
+        <v>1.573065594814936</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.899550104757652</v>
+        <v>1.224025973507539</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.528366873791524</v>
+        <v>1.683220206867109</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.454387377854427</v>
+        <v>1.432686858268794</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>1.549610593265497</v>
+        <v>1.44364013412274</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.627369944641359</v>
+        <v>1.493429266332286</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.653823662993909</v>
+        <v>1.64192608495175</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.643430819921437</v>
+        <v>1.792013618926887</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2023,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>1.44564824579035</v>
+        <v>1.604276196909671</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>1.482653805055111</v>
+        <v>1.382902330057267</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.815283345554007</v>
+        <v>1.479689934768713</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.447005104752515</v>
+        <v>1.771997836822941</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.621144706462937</v>
+        <v>1.610451916464146</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.36627386312385</v>
+        <v>1.410755877279911</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.406903199682502</v>
+        <v>1.555715416093727</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>1.741870599344466</v>
+        <v>1.6817188466749</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.636325186960434</v>
+        <v>1.540417238306229</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.476295990409144</v>
+        <v>1.414778750667224</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.556455366894618</v>
+        <v>1.397457556441026</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>1.596478683386239</v>
+        <v>1.621047132713872</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>1.482918509100866</v>
+        <v>1.327011737536585</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>1.365618963309781</v>
+        <v>1.501173137954005</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.590669873863693</v>
+        <v>1.623433315251216</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.417021010476232</v>
+        <v>1.406171934922237</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.648493203152302</v>
+        <v>1.305142039984813</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.7215638976915</v>
+        <v>1.584828763942658</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>1.491365741460831</v>
+        <v>1.101002478363992</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.759393576037688</v>
+        <v>1.401380870708057</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.500436750208414</v>
+        <v>1.650618847268157</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>1.279672243153025</v>
+        <v>1.240312135897263</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.608607299043569</v>
+        <v>1.40200470865393</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2483,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>1.624918048402499</v>
+        <v>1.615695205251479</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.485090846734189</v>
+        <v>1.451525071072535</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.515502365169394</v>
+        <v>1.342452823007218</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.731163385931008</v>
+        <v>1.622369809924757</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.646780416405707</v>
+        <v>1.494616996631244</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.422303275990157</v>
+        <v>1.53174271013682</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2603,10 +2603,10 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>1.427865653069658</v>
+        <v>1.302893977692535</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.26615687124135</v>
+        <v>1.464585079362622</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.457115643605791</v>
+        <v>1.979436405523393</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.791434627456251</v>
+        <v>1.378262125399794</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.595476815700629</v>
+        <v>1.440031051706319</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2703,10 +2703,10 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77">
-        <v>1.338111607747256</v>
+        <v>1.545385531069341</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.488700149333976</v>
+        <v>1.500735751468518</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.429174658701802</v>
+        <v>1.627292610575297</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.488083664653835</v>
+        <v>1.563725068248307</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2783,10 +2783,10 @@
         <v>1</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81">
-        <v>1.431355640899544</v>
+        <v>1.29672480114387</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.396089977150002</v>
+        <v>1.720284086982633</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.537773304409937</v>
+        <v>1.667937095836183</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.822418676021798</v>
+        <v>1.500163090939272</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.48923845610991</v>
+        <v>1.408412384647524</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.574509145529138</v>
+        <v>1.420661282151365</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.611376461119417</v>
+        <v>1.549751001829974</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>1.65080401018157</v>
+        <v>1.663168421341088</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.264703759429834</v>
+        <v>1.565862646823913</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.652514217924601</v>
+        <v>1.49600338402352</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.515409989736771</v>
+        <v>1.455115651472294</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3003,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92">
-        <v>1.40928389470573</v>
+        <v>1.277391902570727</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.858137812988633</v>
+        <v>1.225640343278653</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.369011990155427</v>
+        <v>1.407765011833433</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.285657107338407</v>
+        <v>1.198792170331446</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96">
-        <v>1.661650686116588</v>
+        <v>1.569013786533234</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.603785573042927</v>
+        <v>1.586181133948254</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.534824300999679</v>
+        <v>1.284469579284009</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.624221103402516</v>
+        <v>1.55998230190921</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.595244068927086</v>
+        <v>1.291867593733167</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.34249154520466</v>
+        <v>1.616626639309003</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.552702187091076</v>
+        <v>1.452941253488895</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3223,10 +3223,10 @@
         <v>1</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>1.552299875495791</v>
+        <v>1.336337598847369</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3243,10 +3243,10 @@
         <v>1</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>1.587003121644019</v>
+        <v>1.396124838019287</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.528874576404422</v>
+        <v>1.407150152907371</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.733008181888131</v>
+        <v>1.530908250995696</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.279501088403863</v>
+        <v>1.516550515125904</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.461488622273286</v>
+        <v>1.42512928031008</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.446353904053626</v>
+        <v>1.211928879661985</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.593236590969924</v>
+        <v>1.51084228892484</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3383,10 +3383,10 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>1.241928465597448</v>
+        <v>1.565384500142795</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.549244020044792</v>
+        <v>1.375977883278944</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.29316543215313</v>
+        <v>1.681415262165823</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.280870024916548</v>
+        <v>1.568453579398618</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.494420717736249</v>
+        <v>1.644483055270562</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>1.511549068208264</v>
+        <v>1.647690294009372</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.504978818146244</v>
+        <v>1.468191136384855</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.302411995572732</v>
+        <v>1.42055417216758</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>1.407679318237607</v>
+        <v>1.522387342298944</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.491609333665939</v>
+        <v>1.463467382412306</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.799706866755549</v>
+        <v>1.439741290816211</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.457255849917072</v>
+        <v>1.529111501855444</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123">
-        <v>1.49519747149426</v>
+        <v>1.85369234158952</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124">
-        <v>1.481396962560985</v>
+        <v>1.424870607133867</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.518622016704753</v>
+        <v>1.539576892374461</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.622694521077217</v>
+        <v>1.489616649549503</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3703,10 +3703,10 @@
         <v>1</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>1.134349242894797</v>
+        <v>1.440229185944973</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3723,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128">
-        <v>1.627386178038031</v>
+        <v>1.424664787531976</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.37801380619659</v>
+        <v>1.539133881850998</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.534403733746476</v>
+        <v>1.363455760663937</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.469491233874854</v>
+        <v>1.325719661449971</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.429523478606951</v>
+        <v>1.622273413361125</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.583731342860017</v>
+        <v>1.346873099478035</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.174830670459535</v>
+        <v>1.32131050845536</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.410398318591354</v>
+        <v>1.641678838830368</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.336093088115218</v>
+        <v>1.301630394132283</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.659470926999579</v>
+        <v>1.470724809720557</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.643856759380034</v>
+        <v>1.697520823914213</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3943,10 +3943,10 @@
         <v>2</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139">
-        <v>1.591145519773189</v>
+        <v>1.487906770468896</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>1.375158913738048</v>
+        <v>1.085190152505507</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3983,10 +3983,10 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>1.705764613362183</v>
+        <v>1.598507707801272</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.263679606417673</v>
+        <v>1.297256916912408</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.290082884759103</v>
+        <v>1.269516549889743</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.619070868990813</v>
+        <v>1.388002788222725</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.855358746889278</v>
+        <v>1.444154747677292</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.497618284333161</v>
+        <v>1.24153073823253</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.61373063894447</v>
+        <v>1.582884968939795</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>1</v>
       </c>
       <c r="F148">
-        <v>1.494601084793603</v>
+        <v>1.336052800080771</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.40657243613145</v>
+        <v>1.495480636899874</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.22860834143503</v>
+        <v>1.568404923468627</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.388347997637342</v>
+        <v>1.17521820289054</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.600245922924384</v>
+        <v>1.638038344801168</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153">
-        <v>1.562567488473074</v>
+        <v>1.784154672211288</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.250415891867161</v>
+        <v>1.461172950600742</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4263,10 +4263,10 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>1.494129367085553</v>
+        <v>1.415775099173735</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4283,10 +4283,10 @@
         <v>2</v>
       </c>
       <c r="E156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F156">
-        <v>1.346001634652456</v>
+        <v>1.386845657429806</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.380735456291797</v>
+        <v>1.445649499741244</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.633940077803804</v>
+        <v>1.602705058690678</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.37840706305453</v>
+        <v>1.508293646089129</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.290571848029316</v>
+        <v>1.545924026950658</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.48853810631559</v>
+        <v>1.521867091630924</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.666456537723457</v>
+        <v>1.454323709130068</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.550197959983102</v>
+        <v>1.449741180761759</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.448003368407794</v>
+        <v>1.492058994797851</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.56702591636228</v>
+        <v>1.328439666515537</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.453701457213637</v>
+        <v>1.586671143768414</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.505819679829829</v>
+        <v>1.407343876823935</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4523,10 +4523,10 @@
         <v>2</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F168">
-        <v>1.797486556588837</v>
+        <v>1.398436011115274</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.562994219476915</v>
+        <v>1.487181486914691</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170">
-        <v>1.221199789902619</v>
+        <v>1.57412078669703</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4583,10 +4583,10 @@
         <v>2</v>
       </c>
       <c r="E171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171">
-        <v>1.490608577817368</v>
+        <v>1.387623430802773</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4603,10 +4603,10 @@
         <v>2</v>
       </c>
       <c r="E172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172">
-        <v>1.464297380345015</v>
+        <v>1.589525234536982</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.392147897506576</v>
+        <v>1.535018242588153</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.13709950503216</v>
+        <v>1.623427853168244</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.614689432680576</v>
+        <v>1.507989794602115</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.567807314571796</v>
+        <v>1.637307945616822</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.647802853231916</v>
+        <v>1.425378986436039</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.268018034621188</v>
+        <v>1.602643849730776</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.566896384409045</v>
+        <v>1.583061422702341</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4763,10 +4763,10 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180">
-        <v>1.418046966359645</v>
+        <v>1.23422373632771</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4783,10 +4783,10 @@
         <v>2</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181">
-        <v>1.49233179650082</v>
+        <v>1.646013731684457</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.591483655547316</v>
+        <v>1.544296014637293</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183">
-        <v>1.57117625940826</v>
+        <v>1.551553912382277</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.43834190618718</v>
+        <v>1.239406059827121</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.153051337417712</v>
+        <v>1.539265860033971</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.418659303062937</v>
+        <v>1.51704724246337</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.25058775249827</v>
+        <v>1.45630713873652</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.517231705696588</v>
+        <v>1.023453464349647</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4943,10 +4943,10 @@
         <v>2</v>
       </c>
       <c r="E189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189">
-        <v>1.40303450171962</v>
+        <v>1.842543673638004</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.51560841551764</v>
+        <v>1.472394078273826</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.480562756740413</v>
+        <v>1.534832901965369</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.777298899636384</v>
+        <v>1.572943101916029</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.703978180241115</v>
+        <v>1.274277848160123</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.449536855650874</v>
+        <v>1.320346066912846</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.650849225187909</v>
+        <v>1.393943404543651</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5083,10 +5083,10 @@
         <v>3</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196">
-        <v>1.679288774206599</v>
+        <v>1.716047314908618</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.36081829907045</v>
+        <v>1.257879249279373</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.367580881627071</v>
+        <v>1.531430206033965</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.503417276380402</v>
+        <v>1.504828237171776</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.630538562355468</v>
+        <v>1.486521655144937</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F201">
-        <v>1.513927132035582</v>
+        <v>1.522657994398918</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.519904157174533</v>
+        <v>1.353144862670385</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5223,10 +5223,10 @@
         <v>3</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203">
-        <v>1.470360781869789</v>
+        <v>1.732002846693698</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.729578137477159</v>
+        <v>1.522903196740673</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5263,10 +5263,10 @@
         <v>3</v>
       </c>
       <c r="E205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F205">
-        <v>1.32202358882525</v>
+        <v>1.693420699865586</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5283,10 +5283,10 @@
         <v>3</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206">
-        <v>1.515319155089931</v>
+        <v>1.289464243189391</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5303,10 +5303,10 @@
         <v>3</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207">
-        <v>1.526059865734484</v>
+        <v>1.314900415965444</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.513260202073366</v>
+        <v>1.304138934086233</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5343,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F209">
-        <v>1.239619128511904</v>
+        <v>1.584334599149842</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.69769343451573</v>
+        <v>1.505245313680707</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.716716086139201</v>
+        <v>1.488978443539115</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5403,10 +5403,10 @@
         <v>3</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F212">
-        <v>1.403471052985402</v>
+        <v>1.479624073528474</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.528958557933435</v>
+        <v>1.392596663833981</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.805523198726704</v>
+        <v>1.546423144252205</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.498228922718706</v>
+        <v>1.577807357274236</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.675110048124693</v>
+        <v>1.659125347906543</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.49162158256573</v>
+        <v>1.795161993069546</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.589844234657566</v>
+        <v>1.792146304039233</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.362172137931547</v>
+        <v>1.282890207400209</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.5222910837812</v>
+        <v>1.600817676027243</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.539033497875316</v>
+        <v>1.52254167036742</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.41162856918522</v>
+        <v>1.492713795978505</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.3161108844626</v>
+        <v>1.427574718893318</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F224">
-        <v>1.555448262902335</v>
+        <v>1.63024727651737</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F225">
-        <v>1.505909699093977</v>
+        <v>1.577797796624304</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="E226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F226">
-        <v>1.443234821557557</v>
+        <v>1.516269021321932</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5703,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F227">
-        <v>1.577995664181109</v>
+        <v>1.740247766645506</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.644462759749481</v>
+        <v>1.793961660289813</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5743,10 +5743,10 @@
         <v>3</v>
       </c>
       <c r="E229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F229">
-        <v>1.269779070292642</v>
+        <v>1.441034498078748</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.731671013401345</v>
+        <v>1.359984914925437</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F231">
-        <v>1.376070869154994</v>
+        <v>1.599592927925574</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.663882796813362</v>
+        <v>1.547222950496378</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.430443088574586</v>
+        <v>1.420928777576004</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.595886451744185</v>
+        <v>1.384678113776213</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.843697124673121</v>
+        <v>1.605620567743102</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.754230589186438</v>
+        <v>1.061551693574815</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.58079951482512</v>
+        <v>1.303608519405834</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.38501951131943</v>
+        <v>1.174536182355365</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.632341929836799</v>
+        <v>1.715550752301031</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.419236732100081</v>
+        <v>1.604903061164053</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.37280707316763</v>
+        <v>1.509004559468261</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.583803122108675</v>
+        <v>1.595568110015805</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.288504550625143</v>
+        <v>1.537443005313379</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.586565957307549</v>
+        <v>1.786300764776255</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.603642870431756</v>
+        <v>1.504130084024362</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.418667081770033</v>
+        <v>1.374763450459387</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.613977884693315</v>
+        <v>1.61915484523693</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.504900210253363</v>
+        <v>1.50290793073251</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.567601275542485</v>
+        <v>1.453508770544129</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.412888856625653</v>
+        <v>1.446282342854723</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6183,10 +6183,10 @@
         <v>3</v>
       </c>
       <c r="E251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F251">
-        <v>1.419288138326911</v>
+        <v>1.338678642693443</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F252">
-        <v>1.36629423191055</v>
+        <v>1.199209967859576</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.398164130337543</v>
+        <v>1.798743374334701</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.553170530642211</v>
+        <v>1.429950702796773</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.30751662322674</v>
+        <v>1.350104252621379</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.548729412516858</v>
+        <v>1.305158812965893</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.534823384709582</v>
+        <v>1.493696838961367</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/31_localizer.xlsx
+++ b/sequences/31_localizer.xlsx
@@ -34,19 +34,184 @@
     <t>dog</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>house</t>
   </si>
   <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>face</t>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
   </si>
   <si>
     <t>dog/dog045.jpg</t>
   </si>
   <si>
-    <t>house/house040.jpg</t>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
   </si>
   <si>
     <t>flower/flower041.jpg</t>
@@ -55,760 +220,595 @@
     <t>house/house033.jpg</t>
   </si>
   <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
   </si>
   <si>
     <t>face/face045.jpg</t>
   </si>
   <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
     <t>face/face034.jpg</t>
   </si>
   <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
     <t>flower/flower044.jpg</t>
   </si>
   <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
   </si>
   <si>
     <t>flower/flower050.jpg</t>
   </si>
   <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
   </si>
   <si>
     <t>face/face055.jpg</t>
   </si>
   <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
     <t>dog/dog053.jpg</t>
   </si>
   <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
   </si>
   <si>
     <t>flower/flower074.jpg</t>
   </si>
   <si>
-    <t>dog/dog065.jpg</t>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
   </si>
   <si>
     <t>face/face079.jpg</t>
   </si>
   <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
     <t>dog/dog075.jpg</t>
   </si>
   <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
     <t>flower/flower068.jpg</t>
   </si>
   <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
   </si>
   <si>
     <t>flower/flower089.jpg</t>
   </si>
   <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
     <t>flower/flower086.jpg</t>
   </si>
   <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
   </si>
   <si>
     <t>dog/dog095.jpg</t>
   </si>
   <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
+    <t>house/house085.jpg</t>
   </si>
   <si>
     <t>dog/dog092.jpg</t>
   </si>
   <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
+    <t>flower/flower082.jpg</t>
   </si>
   <si>
     <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.48963076785303</v>
+        <v>1.535741534016473</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.339711841959597</v>
+        <v>1.186071918702093</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.457281433303437</v>
+        <v>1.678627757300237</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.799659965308665</v>
+        <v>1.412004393601623</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.35360320659026</v>
+        <v>1.558336610157355</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.402281815651148</v>
+        <v>1.538112135394715</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.509906624487399</v>
+        <v>1.582288887160548</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.770925031482425</v>
+        <v>1.552335139363966</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.290660805290484</v>
+        <v>1.732451138256092</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1383,10 +1383,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1.291795974279749</v>
+        <v>1.630751191471795</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.420048762975064</v>
+        <v>1.676677786435131</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1.482226887189512</v>
+        <v>1.695597467181934</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.897321163236336</v>
+        <v>1.471548089200776</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1.396050767420757</v>
+        <v>1.478152598052608</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.373698442878489</v>
+        <v>1.442131992285798</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.503388817538218</v>
+        <v>1.542767107328225</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.489416434103674</v>
+        <v>1.300072748930412</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.634423187096449</v>
+        <v>1.486791354784373</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.58290227274882</v>
+        <v>1.489238794843179</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1.452969854078722</v>
+        <v>1.335409292798221</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.502203953916149</v>
+        <v>1.770218221611264</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.433752706222319</v>
+        <v>1.648964545046337</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.353114099201772</v>
+        <v>1.633183568540765</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.659022362939756</v>
+        <v>1.540973954942819</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.325082549205667</v>
+        <v>1.509797571558479</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>1.218746535975277</v>
+        <v>1.564964469425552</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1723,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1.405067485695424</v>
+        <v>1.385489659843224</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1.480488720926555</v>
+        <v>1.647753871367914</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.525525157816988</v>
+        <v>1.582507075127052</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1.302008185125524</v>
+        <v>1.442522532599835</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.691838631049022</v>
+        <v>1.463607760621425</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.386741937185225</v>
+        <v>1.530514761193082</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1.595950252960413</v>
+        <v>1.538918811641322</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.573065594814936</v>
+        <v>1.357545608196541</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.224025973507539</v>
+        <v>1.581752747194849</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.683220206867109</v>
+        <v>1.632214135879981</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.432686858268794</v>
+        <v>1.554008675809115</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.44364013412274</v>
+        <v>1.475169697454106</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.493429266332286</v>
+        <v>1.617653039124029</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>1.64192608495175</v>
+        <v>1.468808373935316</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.792013618926887</v>
+        <v>1.255417012565086</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2026,7 +2026,7 @@
         <v>1</v>
       </c>
       <c r="F43">
-        <v>1.604276196909671</v>
+        <v>1.605810947199844</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>1.382902330057267</v>
+        <v>1.534768027023028</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.479689934768713</v>
+        <v>1.362471094534095</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.771997836822941</v>
+        <v>1.455908321302506</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.610451916464146</v>
+        <v>1.521273355560399</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.410755877279911</v>
+        <v>1.463577105495887</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.555715416093727</v>
+        <v>1.79432774979607</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.6817188466749</v>
+        <v>1.479743299746913</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.540417238306229</v>
+        <v>1.492841729272123</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.414778750667224</v>
+        <v>1.850506729307242</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.397457556441026</v>
+        <v>1.548922865067239</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.621047132713872</v>
+        <v>1.670331734636552</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.327011737536585</v>
+        <v>1.487548346732677</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>1.501173137954005</v>
+        <v>1.493844754132673</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.623433315251216</v>
+        <v>1.94812787869256</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.406171934922237</v>
+        <v>1.701962863581918</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.305142039984813</v>
+        <v>1.571984431190303</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.584828763942658</v>
+        <v>1.476079097586053</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>1.101002478363992</v>
+        <v>1.324679126863977</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.401380870708057</v>
+        <v>1.449874335260162</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.650618847268157</v>
+        <v>1.40605423137833</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>1.240312135897263</v>
+        <v>1.428304278037059</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.40200470865393</v>
+        <v>1.549392839592617</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2483,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>1.615695205251479</v>
+        <v>1.274417474240189</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.451525071072535</v>
+        <v>1.523640941146699</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.342452823007218</v>
+        <v>1.463565942865052</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.622369809924757</v>
+        <v>1.551520500804893</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.494616996631244</v>
+        <v>1.80926283470099</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.53174271013682</v>
+        <v>1.582368802123164</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.302893977692535</v>
+        <v>1.476655836052659</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.464585079362622</v>
+        <v>1.603348373952433</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.979436405523393</v>
+        <v>1.614225960500361</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.378262125399794</v>
+        <v>1.409071990149305</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.440031051706319</v>
+        <v>1.440054010114031</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2703,10 +2703,10 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>1.545385531069341</v>
+        <v>1.729291488413098</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>1.500735751468518</v>
+        <v>1.556663759203</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.627292610575297</v>
+        <v>1.681432905242793</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.563725068248307</v>
+        <v>1.273109948426235</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2783,10 +2783,10 @@
         <v>1</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>1.29672480114387</v>
+        <v>1.515788913252211</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.720284086982633</v>
+        <v>1.483097336844573</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.667937095836183</v>
+        <v>1.359511458352478</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.500163090939272</v>
+        <v>1.426030725597789</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.408412384647524</v>
+        <v>1.415869750742607</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.420661282151365</v>
+        <v>1.605801824257066</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.549751001829974</v>
+        <v>1.491919017511023</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88">
-        <v>1.663168421341088</v>
+        <v>1.371918610017117</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2943,10 +2943,10 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89">
-        <v>1.565862646823913</v>
+        <v>1.409966135150211</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.49600338402352</v>
+        <v>1.434938323080087</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.455115651472294</v>
+        <v>1.478391146490531</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>1</v>
       </c>
       <c r="F92">
-        <v>1.277391902570727</v>
+        <v>1.450139783045527</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.225640343278653</v>
+        <v>1.536276130677793</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>1.407765011833433</v>
+        <v>1.868995152895377</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.198792170331446</v>
+        <v>1.810151401666393</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>1.569013786533234</v>
+        <v>1.564909434557875</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.586181133948254</v>
+        <v>1.537402536555609</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.284469579284009</v>
+        <v>1.425886888985862</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.55998230190921</v>
+        <v>1.515405460581849</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.291867593733167</v>
+        <v>1.660799577049659</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.616626639309003</v>
+        <v>1.559167069065218</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.452941253488895</v>
+        <v>1.273056276583881</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.336337598847369</v>
+        <v>1.587099493632397</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.396124838019287</v>
+        <v>1.431126885596138</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.407150152907371</v>
+        <v>1.638405018774416</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106">
-        <v>1.530908250995696</v>
+        <v>1.546335493142062</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107">
-        <v>1.516550515125904</v>
+        <v>1.672629929725107</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.42512928031008</v>
+        <v>1.586526097398457</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.211928879661985</v>
+        <v>1.344469507908111</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.51084228892484</v>
+        <v>1.667394746547993</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.565384500142795</v>
+        <v>1.635181910012443</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.375977883278944</v>
+        <v>1.620741603484893</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.681415262165823</v>
+        <v>1.315210387271386</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.568453579398618</v>
+        <v>1.514975119003345</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.644483055270562</v>
+        <v>1.55045072303342</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.647690294009372</v>
+        <v>1.907636355644449</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.468191136384855</v>
+        <v>1.392521496456958</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.42055417216758</v>
+        <v>1.271492657898025</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.522387342298944</v>
+        <v>1.493304080773113</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3563,10 +3563,10 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120">
-        <v>1.463467382412306</v>
+        <v>1.137442590960557</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.439741290816211</v>
+        <v>1.493836379303601</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.529111501855444</v>
+        <v>1.503216351126261</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>1.85369234158952</v>
+        <v>1.448534964664899</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>1.424870607133867</v>
+        <v>1.446258520719296</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.539576892374461</v>
+        <v>1.490726581475222</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.489616649549503</v>
+        <v>1.591426937761348</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.440229185944973</v>
+        <v>1.474514907448444</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3723,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>1.424664787531976</v>
+        <v>1.757281410490962</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.539133881850998</v>
+        <v>1.656872075626295</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3763,10 +3763,10 @@
         <v>2</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130">
-        <v>1.363455760663937</v>
+        <v>1.457780305823583</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.325719661449971</v>
+        <v>1.321937396665169</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.622273413361125</v>
+        <v>1.431414477808966</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.346873099478035</v>
+        <v>1.894530959492593</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.32131050845536</v>
+        <v>1.303667234471441</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.641678838830368</v>
+        <v>1.350427602916376</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.301630394132283</v>
+        <v>1.554993148255353</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.470724809720557</v>
+        <v>1.552922382088536</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.697520823914213</v>
+        <v>1.607109515300984</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3943,10 +3943,10 @@
         <v>2</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>1.487906770468896</v>
+        <v>1.341402949787814</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140">
-        <v>1.085190152505507</v>
+        <v>1.461700629381852</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.598507707801272</v>
+        <v>1.332470293458577</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.297256916912408</v>
+        <v>1.530084705505218</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.269516549889743</v>
+        <v>1.520905772097444</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.388002788222725</v>
+        <v>1.365664445216552</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.444154747677292</v>
+        <v>1.536013974969241</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.24153073823253</v>
+        <v>1.512547355461882</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4103,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147">
-        <v>1.582884968939795</v>
+        <v>1.539998999766035</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4123,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>1.336052800080771</v>
+        <v>1.76471257051382</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149">
-        <v>1.495480636899874</v>
+        <v>1.457790652190156</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.568404923468627</v>
+        <v>1.486429169281275</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.17521820289054</v>
+        <v>1.701197724783843</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.638038344801168</v>
+        <v>1.463113269436516</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>1.784154672211288</v>
+        <v>1.636048171334983</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4243,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154">
-        <v>1.461172950600742</v>
+        <v>1.626565233624305</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.415775099173735</v>
+        <v>1.446190741711375</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.386845657429806</v>
+        <v>1.381936020209345</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.445649499741244</v>
+        <v>1.408582163279042</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.602705058690678</v>
+        <v>1.378705429437292</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.508293646089129</v>
+        <v>1.542995364213574</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.545924026950658</v>
+        <v>1.652553189893926</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.521867091630924</v>
+        <v>1.248610925628088</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.454323709130068</v>
+        <v>1.558491662451121</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.449741180761759</v>
+        <v>1.553018983952426</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.492058994797851</v>
+        <v>1.097530045676341</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.328439666515537</v>
+        <v>1.523221100390498</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.586671143768414</v>
+        <v>1.416718469115034</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167">
-        <v>1.407343876823935</v>
+        <v>1.275140086707403</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4523,10 +4523,10 @@
         <v>2</v>
       </c>
       <c r="E168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>1.398436011115274</v>
+        <v>1.65482749867963</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.487181486914691</v>
+        <v>1.607877874500676</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>1.57412078669703</v>
+        <v>1.54996743769368</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.387623430802773</v>
+        <v>1.413675411003356</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.589525234536982</v>
+        <v>1.239264116328399</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.535018242588153</v>
+        <v>1.522290264230655</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.623427853168244</v>
+        <v>1.292476370322575</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.507989794602115</v>
+        <v>1.366077639035469</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.637307945616822</v>
+        <v>1.29708032248177</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4703,10 +4703,10 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177">
-        <v>1.425378986436039</v>
+        <v>1.605788639949227</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.602643849730776</v>
+        <v>1.360757180663582</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.583061422702341</v>
+        <v>1.426954316626407</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4763,10 +4763,10 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>1.23422373632771</v>
+        <v>1.42899326393115</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4783,10 +4783,10 @@
         <v>2</v>
       </c>
       <c r="E181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>1.646013731684457</v>
+        <v>1.261168827636341</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.544296014637293</v>
+        <v>1.744964506639028</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>1.551553912382277</v>
+        <v>1.580276871299052</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.239406059827121</v>
+        <v>1.335617578116846</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.539265860033971</v>
+        <v>1.64712984800091</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.51704724246337</v>
+        <v>1.398057503621458</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.45630713873652</v>
+        <v>1.256732514887001</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.023453464349647</v>
+        <v>1.11754864899292</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.842543673638004</v>
+        <v>1.701558444080978</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4963,10 +4963,10 @@
         <v>2</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190">
-        <v>1.472394078273826</v>
+        <v>1.625825307681334</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.534832901965369</v>
+        <v>1.25566335288072</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.572943101916029</v>
+        <v>1.407355798738865</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.274277848160123</v>
+        <v>1.469261046600071</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.320346066912846</v>
+        <v>1.54840531800467</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195">
-        <v>1.393943404543651</v>
+        <v>1.452140921998971</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>1</v>
       </c>
       <c r="F196">
-        <v>1.716047314908618</v>
+        <v>1.653186736775694</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.257879249279373</v>
+        <v>1.47117796540697</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.531430206033965</v>
+        <v>1.278105753828307</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.504828237171776</v>
+        <v>1.440458959656415</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.486521655144937</v>
+        <v>1.58244689133295</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.522657994398918</v>
+        <v>1.387444755388627</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202">
-        <v>1.353144862670385</v>
+        <v>1.565075110499043</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5223,10 +5223,10 @@
         <v>3</v>
       </c>
       <c r="E203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F203">
-        <v>1.732002846693698</v>
+        <v>1.707552375694027</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.522903196740673</v>
+        <v>1.413691727153741</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.693420699865586</v>
+        <v>1.480188849573816</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5283,10 +5283,10 @@
         <v>3</v>
       </c>
       <c r="E206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F206">
-        <v>1.289464243189391</v>
+        <v>1.237098634775068</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5303,10 +5303,10 @@
         <v>3</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>1.314900415965444</v>
+        <v>1.630302164613453</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.304138934086233</v>
+        <v>1.51071100538032</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5343,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="E209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209">
-        <v>1.584334599149842</v>
+        <v>1.481764775641562</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.505245313680707</v>
+        <v>1.712008218479194</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.488978443539115</v>
+        <v>1.004814962783306</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>1</v>
       </c>
       <c r="F212">
-        <v>1.479624073528474</v>
+        <v>1.400978168715038</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.392596663833981</v>
+        <v>1.647886678812556</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.546423144252205</v>
+        <v>1.352204242613362</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.577807357274236</v>
+        <v>1.599165848501697</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.659125347906543</v>
+        <v>1.501102432934757</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.795161993069546</v>
+        <v>1.425587392886249</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5523,10 +5523,10 @@
         <v>3</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F218">
-        <v>1.792146304039233</v>
+        <v>1.375994030239403</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.282890207400209</v>
+        <v>1.702065317324195</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.600817676027243</v>
+        <v>1.635242668645691</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.52254167036742</v>
+        <v>1.394181887983398</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.492713795978505</v>
+        <v>1.519412584483671</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5623,10 +5623,10 @@
         <v>3</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F223">
-        <v>1.427574718893318</v>
+        <v>1.545252113802786</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.63024727651737</v>
+        <v>1.734818888191368</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F225">
-        <v>1.577797796624304</v>
+        <v>1.336572717357137</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.516269021321932</v>
+        <v>1.486064310897904</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.740247766645506</v>
+        <v>1.507847657385917</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.793961660289813</v>
+        <v>1.37896404135027</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.441034498078748</v>
+        <v>1.454581401739232</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.359984914925437</v>
+        <v>1.54278143533719</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.599592927925574</v>
+        <v>1.601314694574096</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.547222950496378</v>
+        <v>1.557285207624639</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.420928777576004</v>
+        <v>1.635927763435912</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.384678113776213</v>
+        <v>1.589014472361067</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.605620567743102</v>
+        <v>1.578594971031458</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.061551693574815</v>
+        <v>1.475513570968126</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.303608519405834</v>
+        <v>1.57308151445674</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.174536182355365</v>
+        <v>1.612752697089778</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.715550752301031</v>
+        <v>1.13596500712176</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.604903061164053</v>
+        <v>1.191310590281442</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5983,10 +5983,10 @@
         <v>3</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F241">
-        <v>1.509004559468261</v>
+        <v>1.143053752787158</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.595568110015805</v>
+        <v>1.400636346581765</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.537443005313379</v>
+        <v>1.349940425242506</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.786300764776255</v>
+        <v>1.522438668120105</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.504130084024362</v>
+        <v>1.395529621927544</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.374763450459387</v>
+        <v>1.407233074841582</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.61915484523693</v>
+        <v>1.549017809084234</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6123,10 +6123,10 @@
         <v>3</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F248">
-        <v>1.50290793073251</v>
+        <v>1.435632262020523</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.453508770544129</v>
+        <v>1.574351597518621</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.446282342854723</v>
+        <v>1.724919188435105</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.338678642693443</v>
+        <v>1.563499393811318</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F252">
-        <v>1.199209967859576</v>
+        <v>1.570845670283484</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.798743374334701</v>
+        <v>1.436528299723194</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.429950702796773</v>
+        <v>1.65182969311029</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.350104252621379</v>
+        <v>1.303422577764814</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.305158812965893</v>
+        <v>1.721347594971609</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.493696838961367</v>
+        <v>1.529242975551997</v>
       </c>
     </row>
   </sheetData>
